--- a/src/ontology/immunology/ido-s4lps-tlr4.xlsx
+++ b/src/ontology/immunology/ido-s4lps-tlr4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="28060" yWindow="860" windowWidth="21600" windowHeight="14260" tabRatio="500"/>
+    <workbookView xWindow="29880" yWindow="-520" windowWidth="25420" windowHeight="19440" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="TLR4MyD88" sheetId="1" r:id="rId1"/>
@@ -42,6 +42,14 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
+    <t>GO:0016567</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>protein ubiquitylation</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
     <t>process</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1653,10 +1661,6 @@
   </si>
   <si>
     <t>pop</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>polyubiquitination binding process</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -4335,10 +4339,6 @@
   </si>
   <si>
     <t>Identification of Ser-386 of interferon regulatory factor 3 as critical target for inducible phosphorylation that determines activation</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>GO submitted</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -5231,8 +5231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" mc:Ignorable="mv" mc:PreserveAttributes="mv:*">
   <dimension ref="A1:AZ161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A110" zoomScale="150" workbookViewId="0">
+      <selection activeCell="B76" sqref="B76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -5250,32 +5250,32 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="9" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="4" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="26">
       <c r="A2" s="10" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C2" s="11">
         <v>38493</v>
@@ -5284,7 +5284,7 @@
         <v>38526</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -5292,10 +5292,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C3" s="10"/>
       <c r="D3" s="10"/>
@@ -5306,19 +5306,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -5327,16 +5327,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="10" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
@@ -5345,16 +5345,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -5363,16 +5363,16 @@
     </row>
     <row r="7" spans="1:9" ht="39">
       <c r="A7" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -5381,16 +5381,16 @@
     </row>
     <row r="8" spans="1:9" ht="39">
       <c r="A8" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -5399,16 +5399,16 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -5417,16 +5417,16 @@
     </row>
     <row r="10" spans="1:9" ht="39">
       <c r="A10" s="10" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -5435,16 +5435,16 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -5453,16 +5453,16 @@
     </row>
     <row r="12" spans="1:9" ht="39">
       <c r="A12" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -5471,16 +5471,16 @@
     </row>
     <row r="13" spans="1:9" ht="26">
       <c r="A13" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B13" s="10" t="s">
+        <v>630</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>773</v>
+      </c>
+      <c r="D13" s="10" t="s">
         <v>629</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>772</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>628</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -5489,13 +5489,13 @@
     </row>
     <row r="14" spans="1:9" ht="26">
       <c r="A14" s="10" t="s">
+        <v>774</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C14" s="10" t="s">
         <v>773</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>772</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="12"/>
@@ -5505,13 +5505,13 @@
     </row>
     <row r="15" spans="1:9" ht="26">
       <c r="A15" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="D15" s="10"/>
       <c r="E15" s="12"/>
@@ -5521,16 +5521,16 @@
     </row>
     <row r="16" spans="1:9" ht="26">
       <c r="A16" s="10" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>1039</v>
+        <v>1040</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
@@ -5538,16 +5538,16 @@
     </row>
     <row r="17" spans="1:8" ht="26">
       <c r="A17" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>529</v>
+      </c>
+      <c r="C17" s="10" t="s">
         <v>816</v>
       </c>
-      <c r="B17" s="10" t="s">
-        <v>528</v>
-      </c>
-      <c r="C17" s="10" t="s">
-        <v>815</v>
-      </c>
       <c r="D17" s="10" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="12"/>
@@ -5556,16 +5556,16 @@
     </row>
     <row r="18" spans="1:8" ht="26">
       <c r="A18" s="10" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E18" s="12"/>
       <c r="F18" s="12"/>
@@ -5574,16 +5574,16 @@
     </row>
     <row r="19" spans="1:8" ht="26">
       <c r="A19" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E19" s="12"/>
       <c r="F19" s="12"/>
@@ -5598,10 +5598,10 @@
         <v>1150</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E20" s="12"/>
       <c r="F20" s="12"/>
@@ -5610,16 +5610,16 @@
     </row>
     <row r="21" spans="1:8" ht="39">
       <c r="A21" s="10" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -5628,16 +5628,16 @@
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="10" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -5646,16 +5646,16 @@
     </row>
     <row r="23" spans="1:8" ht="26">
       <c r="A23" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -5664,16 +5664,16 @@
     </row>
     <row r="24" spans="1:8" ht="26">
       <c r="A24" s="10" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -5682,16 +5682,16 @@
     </row>
     <row r="25" spans="1:8" ht="26">
       <c r="A25" s="10" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -5700,16 +5700,16 @@
     </row>
     <row r="26" spans="1:8" ht="39">
       <c r="A26" s="10" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -5718,16 +5718,16 @@
     </row>
     <row r="27" spans="1:8" ht="26">
       <c r="A27" s="10" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -5736,16 +5736,16 @@
     </row>
     <row r="28" spans="1:8" ht="26">
       <c r="A28" s="10" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -5754,16 +5754,16 @@
     </row>
     <row r="29" spans="1:8" ht="26">
       <c r="A29" s="10" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -5772,16 +5772,16 @@
     </row>
     <row r="30" spans="1:8" ht="26">
       <c r="A30" s="10" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -5790,16 +5790,16 @@
     </row>
     <row r="31" spans="1:8" s="7" customFormat="1" ht="26">
       <c r="A31" s="10" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -5808,16 +5808,16 @@
     </row>
     <row r="32" spans="1:8" ht="26">
       <c r="A32" s="10" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -5826,16 +5826,16 @@
     </row>
     <row r="33" spans="1:52" ht="39">
       <c r="A33" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -5844,16 +5844,16 @@
     </row>
     <row r="34" spans="1:52" ht="26">
       <c r="A34" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -5862,16 +5862,16 @@
     </row>
     <row r="35" spans="1:52" ht="26">
       <c r="A35" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E35" s="12"/>
       <c r="F35" s="12"/>
@@ -5880,16 +5880,16 @@
     </row>
     <row r="36" spans="1:52" ht="39">
       <c r="A36" s="10" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E36" s="12"/>
       <c r="F36" s="12"/>
@@ -5898,16 +5898,16 @@
     </row>
     <row r="37" spans="1:52">
       <c r="A37" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>1145</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -5916,16 +5916,16 @@
     </row>
     <row r="38" spans="1:52">
       <c r="A38" s="10" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>1146</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -5934,16 +5934,16 @@
     </row>
     <row r="39" spans="1:52" ht="26">
       <c r="A39" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -5952,16 +5952,16 @@
     </row>
     <row r="40" spans="1:52" ht="26">
       <c r="A40" s="10" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>1055</v>
+        <v>1056</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
@@ -5970,16 +5970,16 @@
     </row>
     <row r="41" spans="1:52" ht="26">
       <c r="A41" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -5988,16 +5988,16 @@
     </row>
     <row r="42" spans="1:52">
       <c r="A42" s="10" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
@@ -6006,16 +6006,16 @@
     </row>
     <row r="43" spans="1:52">
       <c r="A43" s="10" t="s">
-        <v>1057</v>
+        <v>1058</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>1058</v>
+        <v>1059</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>1059</v>
+        <v>1060</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -6024,16 +6024,16 @@
     </row>
     <row r="44" spans="1:52">
       <c r="A44" s="10" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>990</v>
+        <v>991</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -6042,16 +6042,16 @@
     </row>
     <row r="45" spans="1:52" ht="65">
       <c r="A45" s="10" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -6064,16 +6064,16 @@
     </row>
     <row r="46" spans="1:52" ht="65">
       <c r="A46" s="10" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
@@ -6091,7 +6091,7 @@
         <v>1154</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -6109,7 +6109,7 @@
         <v>1154</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
@@ -6118,16 +6118,16 @@
     </row>
     <row r="49" spans="1:8" ht="26">
       <c r="A49" s="10" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -6139,13 +6139,13 @@
         <v>1142</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
@@ -6160,10 +6160,10 @@
         <v>1138</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D51" s="56" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -6178,10 +6178,10 @@
         <v>1141</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D52" s="56" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
@@ -6190,16 +6190,16 @@
     </row>
     <row r="53" spans="1:8" ht="26">
       <c r="A53" s="10" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B53" s="56" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C53" s="7" t="s">
         <v>1165</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
@@ -6208,16 +6208,16 @@
     </row>
     <row r="54" spans="1:8" ht="26">
       <c r="A54" s="10" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="B54" s="56" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="C54" s="7" t="s">
         <v>1165</v>
       </c>
       <c r="D54" s="56" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
@@ -6226,16 +6226,16 @@
     </row>
     <row r="55" spans="1:8" ht="26">
       <c r="A55" s="10" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C55" s="7" t="s">
         <v>1165</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
@@ -6244,16 +6244,16 @@
     </row>
     <row r="56" spans="1:8" ht="26">
       <c r="A56" s="10" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="C56" s="7" t="s">
         <v>1165</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
@@ -6262,22 +6262,22 @@
     </row>
     <row r="57" spans="1:8" ht="26">
       <c r="A57" s="10" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="C57" s="7" t="s">
         <v>1165</v>
       </c>
       <c r="D57" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
       <c r="G57" s="12"/>
       <c r="H57" s="12" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="26">
@@ -6285,33 +6285,33 @@
         <v>1144</v>
       </c>
       <c r="B58" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="C58" s="7" t="s">
         <v>1165</v>
       </c>
       <c r="D58" s="10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
       <c r="G58" s="12"/>
       <c r="H58" s="12" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="26">
       <c r="A59" s="10" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="B59" s="10" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
@@ -6320,16 +6320,16 @@
     </row>
     <row r="60" spans="1:8" ht="26">
       <c r="A60" s="10" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D60" s="10" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
@@ -6338,16 +6338,16 @@
     </row>
     <row r="61" spans="1:8" ht="26">
       <c r="A61" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D61" s="10" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
@@ -6356,16 +6356,16 @@
     </row>
     <row r="62" spans="1:8" ht="26">
       <c r="A62" s="10" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D62" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
@@ -6374,16 +6374,16 @@
     </row>
     <row r="63" spans="1:8" ht="26">
       <c r="A63" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="B63" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="B63" s="10" t="s">
-        <v>161</v>
-      </c>
       <c r="C63" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
@@ -6392,16 +6392,16 @@
     </row>
     <row r="64" spans="1:8" ht="26">
       <c r="A64" s="10" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
@@ -6410,16 +6410,16 @@
     </row>
     <row r="65" spans="1:8" ht="12" customHeight="1">
       <c r="A65" s="10" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -6428,16 +6428,16 @@
     </row>
     <row r="66" spans="1:8" ht="26">
       <c r="A66" s="10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
@@ -6446,16 +6446,16 @@
     </row>
     <row r="67" spans="1:8">
       <c r="A67" s="10" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
@@ -6464,16 +6464,16 @@
     </row>
     <row r="68" spans="1:8" ht="26">
       <c r="A68" s="10" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -6485,13 +6485,13 @@
         <v>1147</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -6500,16 +6500,16 @@
     </row>
     <row r="70" spans="1:8" ht="26">
       <c r="A70" s="10" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
@@ -6521,10 +6521,10 @@
         <v>1148</v>
       </c>
       <c r="B71" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C71" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D71" s="10" t="s">
         <v>0</v>
@@ -6536,16 +6536,16 @@
     </row>
     <row r="72" spans="1:8">
       <c r="A72" s="10" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B72" s="10" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C72" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D72" s="10" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -6554,13 +6554,13 @@
     </row>
     <row r="73" spans="1:8" ht="26">
       <c r="A73" s="10" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="B73" s="10" t="s">
         <v>2</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D73" s="10" t="s">
         <v>1</v>
@@ -6572,16 +6572,16 @@
     </row>
     <row r="74" spans="1:8" ht="26">
       <c r="A74" s="10" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="B74" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D74" s="10" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
@@ -6590,16 +6590,16 @@
     </row>
     <row r="75" spans="1:8" ht="26">
       <c r="A75" s="10" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
@@ -6608,16 +6608,16 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
@@ -6626,34 +6626,34 @@
     </row>
     <row r="77" spans="1:8">
       <c r="A77" s="10" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
       <c r="G77" s="12"/>
       <c r="H77" s="12"/>
     </row>
-    <row r="78" spans="1:8" ht="26">
+    <row r="78" spans="1:8">
       <c r="A78" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>422</v>
+        <v>4</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>1132</v>
+        <v>3</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
@@ -6662,16 +6662,16 @@
     </row>
     <row r="79" spans="1:8" ht="26">
       <c r="A79" s="10" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="B79" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D79" s="7" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
@@ -6680,16 +6680,16 @@
     </row>
     <row r="80" spans="1:8" ht="39">
       <c r="A80" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -6698,16 +6698,16 @@
     </row>
     <row r="81" spans="1:8" ht="26">
       <c r="A81" s="10" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B81" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
@@ -6716,16 +6716,16 @@
     </row>
     <row r="82" spans="1:8" ht="26">
       <c r="A82" s="10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B82" s="7" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
@@ -6734,16 +6734,16 @@
     </row>
     <row r="83" spans="1:8" ht="26">
       <c r="A83" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="B83" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D83" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
@@ -6752,16 +6752,16 @@
     </row>
     <row r="84" spans="1:8" ht="26">
       <c r="A84" s="10" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="B84" s="7" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D84" s="7" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
@@ -6770,16 +6770,16 @@
     </row>
     <row r="85" spans="1:8" ht="26">
       <c r="A85" s="10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
@@ -6788,16 +6788,16 @@
     </row>
     <row r="86" spans="1:8" ht="26">
       <c r="A86" s="10" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
@@ -6806,16 +6806,16 @@
     </row>
     <row r="87" spans="1:8" ht="26">
       <c r="A87" s="10" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
@@ -6824,16 +6824,16 @@
     </row>
     <row r="88" spans="1:8">
       <c r="A88" s="10" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D88" s="10" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
@@ -6842,16 +6842,16 @@
     </row>
     <row r="89" spans="1:8">
       <c r="A89" s="10" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
@@ -6860,16 +6860,16 @@
     </row>
     <row r="90" spans="1:8" ht="26">
       <c r="A90" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
@@ -6878,16 +6878,16 @@
     </row>
     <row r="91" spans="1:8" ht="26">
       <c r="A91" s="10" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="B91" s="10" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
@@ -6896,16 +6896,16 @@
     </row>
     <row r="92" spans="1:8" ht="26">
       <c r="A92" s="10" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="B92" s="10" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
@@ -6914,16 +6914,16 @@
     </row>
     <row r="93" spans="1:8" ht="26">
       <c r="A93" s="10" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="B93" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C93" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D93" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
@@ -6932,16 +6932,16 @@
     </row>
     <row r="94" spans="1:8" ht="26">
       <c r="A94" s="10" t="s">
+        <v>693</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>692</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>585</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>691</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
@@ -6950,16 +6950,16 @@
     </row>
     <row r="95" spans="1:8" ht="26">
       <c r="A95" s="10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="B95" s="7" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C95" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D95" s="10" t="s">
-        <v>991</v>
+        <v>992</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
@@ -6968,16 +6968,16 @@
     </row>
     <row r="96" spans="1:8" ht="26">
       <c r="A96" s="10" t="s">
-        <v>1081</v>
+        <v>1082</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D96" s="10" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
@@ -6986,16 +6986,16 @@
     </row>
     <row r="97" spans="1:8" ht="26">
       <c r="A97" s="10" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B97" s="7" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
@@ -7004,16 +7004,16 @@
     </row>
     <row r="98" spans="1:8" ht="26">
       <c r="A98" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B98" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
@@ -7022,16 +7022,16 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="10" t="s">
+        <v>438</v>
+      </c>
+      <c r="B99" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="B99" s="10" t="s">
-        <v>436</v>
-      </c>
       <c r="C99" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
@@ -7040,16 +7040,16 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
@@ -7058,16 +7058,16 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="10" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D101" s="10" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
@@ -7076,16 +7076,16 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="10" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="B102" s="10" t="s">
+        <v>498</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>597</v>
+      </c>
+      <c r="D102" s="10" t="s">
         <v>497</v>
-      </c>
-      <c r="C102" s="10" t="s">
-        <v>596</v>
-      </c>
-      <c r="D102" s="10" t="s">
-        <v>496</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
@@ -7094,13 +7094,13 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="10" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D103" s="10"/>
       <c r="E103" s="12"/>
@@ -7110,16 +7110,16 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
@@ -7128,16 +7128,16 @@
     </row>
     <row r="105" spans="1:8">
       <c r="A105" s="10" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="B105" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C105" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D105" s="10" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -7147,13 +7147,13 @@
     <row r="106" spans="1:8">
       <c r="A106" s="10"/>
       <c r="B106" s="10" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D106" s="10" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
@@ -7163,129 +7163,129 @@
     <row r="107" spans="1:8">
       <c r="A107" s="10"/>
       <c r="B107" s="13" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C107" s="13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E107" s="14" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F107" s="18" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G107" s="18" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H107" s="20"/>
     </row>
     <row r="108" spans="1:8" ht="39">
       <c r="A108" s="10"/>
       <c r="B108" s="10" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
       <c r="G108" s="12" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="H108" s="27" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="109" spans="1:8" ht="39">
       <c r="A109" s="10"/>
       <c r="B109" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
       <c r="G109" s="12" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="H109" s="27" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="110" spans="1:8" ht="36" customHeight="1">
       <c r="A110" s="10"/>
       <c r="B110" s="10" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
       <c r="G110" s="12"/>
       <c r="H110" s="27" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="63" customHeight="1">
       <c r="A111" s="10"/>
       <c r="B111" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
       <c r="G111" s="12"/>
       <c r="H111" s="27" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="112" spans="1:8" ht="52">
       <c r="A112" s="10"/>
       <c r="B112" s="10" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
       <c r="G112" s="12"/>
       <c r="H112" s="20" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="113" spans="1:9" ht="26">
       <c r="A113" s="10"/>
       <c r="B113" s="10" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D113" s="10" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
@@ -7295,21 +7295,21 @@
     <row r="114" spans="1:9" ht="39">
       <c r="A114" s="10"/>
       <c r="B114" s="10" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
       <c r="G114" s="12" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="H114" s="17" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="115" spans="1:9" ht="26">
@@ -7318,10 +7318,10 @@
         <v>1166</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="E115" s="12"/>
       <c r="F115" s="12"/>
@@ -7331,21 +7331,21 @@
     <row r="116" spans="1:9" ht="39">
       <c r="A116" s="10"/>
       <c r="B116" s="10" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E116" s="12"/>
       <c r="F116" s="12"/>
       <c r="G116" s="12" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
       <c r="H116" s="17" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="117" spans="1:9" ht="52">
@@ -7354,33 +7354,33 @@
         <v>1151</v>
       </c>
       <c r="C117" s="10" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D117" s="10" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
       <c r="G117" s="12" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="H117" s="12"/>
     </row>
     <row r="118" spans="1:9" ht="39">
       <c r="A118" s="21"/>
       <c r="B118" s="10" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D118" s="10" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
       <c r="G118" s="12" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H118" s="12"/>
     </row>
@@ -7390,36 +7390,36 @@
         <v>1155</v>
       </c>
       <c r="C119" s="10" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="D119" s="10" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E119" s="12"/>
       <c r="F119" s="12"/>
       <c r="G119" s="12"/>
       <c r="H119" s="17" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="120" spans="1:9" ht="52">
       <c r="A120" s="10"/>
       <c r="B120" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C120" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D120" s="10" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="E120" s="12"/>
       <c r="F120" s="12"/>
       <c r="G120" s="12" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="121" spans="1:9" ht="26">
@@ -7428,10 +7428,10 @@
         <v>1139</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
@@ -7441,13 +7441,13 @@
     <row r="122" spans="1:9" ht="65">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
@@ -7457,13 +7457,13 @@
     <row r="123" spans="1:9" ht="26">
       <c r="A123" s="10"/>
       <c r="B123" s="40" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C123" s="40" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D123" s="40" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
@@ -7473,13 +7473,13 @@
     <row r="124" spans="1:9" ht="52">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
@@ -7492,10 +7492,10 @@
         <v>1143</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D125" s="22" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
@@ -7505,13 +7505,13 @@
     <row r="126" spans="1:9" ht="26">
       <c r="A126" s="10"/>
       <c r="B126" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C126" s="40" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
@@ -7521,54 +7521,54 @@
     <row r="127" spans="1:9" ht="39">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
       <c r="G127" s="12" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="H127" s="19" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="I127" s="5" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
     </row>
     <row r="128" spans="1:9" ht="26">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
       <c r="G128" s="12"/>
       <c r="H128" s="5" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="129" spans="1:9" ht="39">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
@@ -7577,7 +7577,7 @@
     <row r="130" spans="1:9" ht="91">
       <c r="A130" s="28"/>
       <c r="B130" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C130" s="10"/>
       <c r="D130" s="10"/>
@@ -7585,30 +7585,30 @@
       <c r="F130" s="12"/>
       <c r="G130" s="12"/>
       <c r="H130" s="19" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="91">
       <c r="A131" s="10"/>
       <c r="B131" s="28" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C131" s="28" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="D131" s="28" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="E131" s="19"/>
       <c r="F131" s="19"/>
       <c r="G131" s="19" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="H131" s="19" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="I131" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="132" spans="1:9">
@@ -7634,10 +7634,10 @@
     <row r="134" spans="1:9" ht="26">
       <c r="A134" s="10"/>
       <c r="B134" s="13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D134" s="10"/>
       <c r="E134" s="24"/>
@@ -7648,10 +7648,10 @@
     <row r="135" spans="1:9" ht="26">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D135" s="10"/>
       <c r="E135" s="12"/>
@@ -7666,23 +7666,23 @@
         <v>IkbK</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="D136" s="10"/>
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
       <c r="G136" s="12" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="H136" s="12"/>
     </row>
     <row r="137" spans="1:9">
       <c r="A137" s="10"/>
       <c r="B137" s="28" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C137" s="28" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D137" s="10"/>
       <c r="E137" s="12"/>
@@ -7693,10 +7693,10 @@
     <row r="138" spans="1:9">
       <c r="A138" s="10"/>
       <c r="B138" s="10" t="s">
-        <v>1038</v>
+        <v>1039</v>
       </c>
       <c r="C138" s="10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="D138" s="10"/>
       <c r="E138" s="12"/>
@@ -7711,23 +7711,23 @@
         <v>Ubc13-Uev1A</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D139" s="10"/>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
       <c r="G139" s="12" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="H139" s="12"/>
     </row>
     <row r="140" spans="1:9" ht="39">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D140" s="10"/>
       <c r="E140" s="12"/>
@@ -7757,7 +7757,7 @@
     </row>
     <row r="143" spans="1:9">
       <c r="A143" s="13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B143" s="10"/>
       <c r="C143" s="10"/>
@@ -7770,16 +7770,16 @@
     <row r="144" spans="1:9" s="1" customFormat="1" ht="26">
       <c r="A144" s="10"/>
       <c r="B144" s="13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C144" s="13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D144" s="13" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E144" s="14" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F144" s="18"/>
       <c r="G144" s="18"/>
@@ -7791,13 +7791,13 @@
         <v>rlps2-tm+IRK4-&gt;rlps-tmIRK4</v>
       </c>
       <c r="B145" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C145" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D145" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
@@ -7810,18 +7810,18 @@
         <v>rlps-tmIRK4IRK1-&gt;rpls-tmIRK4IRK1p   (Thr 387)</v>
       </c>
       <c r="B146" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="D146" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E146" s="12"/>
       <c r="F146" s="12"/>
       <c r="G146" s="26" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="H146" s="12"/>
     </row>
@@ -7831,13 +7831,13 @@
         <v xml:space="preserve">rlps-tmIRK4IRK1p-&gt;rpls-tmIRK4IRK1pp </v>
       </c>
       <c r="B147" s="10" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D147" s="10" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
@@ -7850,13 +7850,13 @@
         <v>rplstmIRK4IRK1pp+tf6-&gt; rpls-tmIRK4IRK1pptf6</v>
       </c>
       <c r="B148" s="10" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="D148" s="10" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E148" s="12"/>
       <c r="F148" s="12"/>
@@ -7869,13 +7869,13 @@
         <v>IRK1pptf6+pel-&gt; IRK1pptf6pel</v>
       </c>
       <c r="B149" s="10" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C149" s="10" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D149" s="10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E149" s="12"/>
       <c r="F149" s="12"/>
@@ -7888,13 +7888,13 @@
         <v>IRK1pptf6pelTI + Ubc13-Uev1A+ub-&gt; IRK1pptf6k63ubpelTI</v>
       </c>
       <c r="B150" s="10" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C150" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D150" s="10" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
       <c r="E150" s="12"/>
       <c r="F150" s="12"/>
@@ -7907,13 +7907,13 @@
         <v>IRK1pptf6k63ubpelTI+ub-&gt; IRK1pptf6pubpel+TIFA</v>
       </c>
       <c r="B151" s="7" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="C151" s="10" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D151" s="10" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E151" s="12"/>
       <c r="F151" s="12"/>
@@ -7926,13 +7926,13 @@
         <v>IRK1pptf6pubpel-&gt; IRK1pptf6pubpelp</v>
       </c>
       <c r="B152" s="10" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="C152" s="10" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D152" s="10" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="E152" s="12"/>
       <c r="F152" s="12"/>
@@ -7945,13 +7945,13 @@
         <v>IRK1pptf6pubpelp-&gt; IRK1ubpptf6pubpelp</v>
       </c>
       <c r="B153" s="10" t="s">
+        <v>902</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>838</v>
+      </c>
+      <c r="D153" s="10" t="s">
         <v>901</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>837</v>
-      </c>
-      <c r="D153" s="10" t="s">
-        <v>900</v>
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
@@ -7964,13 +7964,13 @@
         <v>IRK1pptf6pubpelp+tak1tab1tab2tab3-&gt; IRK1pptf6pubpelptak1tab1tab2tab3</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
@@ -7983,13 +7983,13 @@
         <v>IRK1ubpptf6pubpelp+IKbK-&gt; IRK1ubpptf6pubpelpIKbK</v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C155" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="D155" s="10" t="s">
         <v>432</v>
-      </c>
-      <c r="D155" s="10" t="s">
-        <v>431</v>
       </c>
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
@@ -8002,13 +8002,13 @@
         <v>tak1 part of IRK1pptf6pubpelptak1tab1tab2tab3 posphorilates IKbK part of IRK1ubpptf6pubpelpIKbK-&gt; IRK1ubpptf6pubpelpIKbKp</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
@@ -8021,13 +8021,13 @@
         <v>IKbKp part of IRK1ubpptf6pubpelpIKbKp posphorilates IKB part of IKBNfkb-&gt; IKBpNfkb</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="158" spans="1:8" ht="39">
@@ -8036,11 +8036,11 @@
         <v>IKBpNfkb+ub-&gt;IKBpK48ubNfkb</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C158" s="10"/>
       <c r="D158" s="10" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="159" spans="1:8" ht="52">
@@ -8049,11 +8049,11 @@
         <v xml:space="preserve">IKBpK48ubNfkb-&gt; IKBpK48ub+Nfkb </v>
       </c>
       <c r="B159" s="10" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C159" s="10"/>
       <c r="D159" s="10" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="52">
@@ -8062,11 +8062,11 @@
         <v>IKBpK48ub-&gt;0 GO:0006511</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
       <c r="C160" s="10"/>
       <c r="D160" s="10" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="39">
@@ -8075,16 +8075,17 @@
         <v>Nfkb translocate to nucleus</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C161" s="10"/>
       <c r="D161" s="10" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="http://schemas.microsoft.com/office/mac/excel/2008/main">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -8109,18 +8110,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26">
       <c r="A1" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26">
       <c r="A2" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
     </row>
   </sheetData>
@@ -8155,556 +8156,556 @@
   <sheetData>
     <row r="1" spans="1:15" ht="39">
       <c r="A1" s="7" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C1" s="7" t="s">
+        <v>607</v>
+      </c>
+      <c r="D1" s="7" t="s">
         <v>606</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>605</v>
-      </c>
       <c r="E1" s="7" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>500</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>499</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>498</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="409">
       <c r="A2" s="7" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="221">
       <c r="A3" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
       <c r="H3" s="7" t="s">
+        <v>950</v>
+      </c>
+      <c r="I3" s="7" t="s">
         <v>949</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>948</v>
-      </c>
       <c r="J3" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>595</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>594</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>593</v>
-      </c>
       <c r="O3" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="107" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="329" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="329" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>1072</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>1073</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>1071</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="65">
       <c r="A7" s="7" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>1066</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>1065</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="I7" s="7" t="s">
         <v>1064</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>1063</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="208">
       <c r="A8" s="7" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>922</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>921</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>1049</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>920</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="91">
       <c r="A9" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="104">
       <c r="A10" s="7" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="195">
       <c r="A11" s="7" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="169">
       <c r="A12" s="7" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="91">
       <c r="A13" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="91">
       <c r="E14" s="7" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="221">
       <c r="A15" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="78">
       <c r="A16" s="7" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="234">
       <c r="A17" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="104">
       <c r="A18" s="7" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="117">
       <c r="A19" s="7" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="52">
       <c r="A20" s="7" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="338">
       <c r="E21" s="7" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="169">
       <c r="A22" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>718</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>716</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>717</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>715</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="130">
       <c r="A23" s="7" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="169">
       <c r="A24" s="7" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="325">
       <c r="A25" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
   </sheetData>
@@ -8740,24 +8741,24 @@
   <sheetData>
     <row r="1" spans="1:52" s="15" customFormat="1" ht="26">
       <c r="A1" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="34" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -8806,17 +8807,17 @@
     </row>
     <row r="2" spans="1:52" s="15" customFormat="1" ht="26">
       <c r="A2" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="11">
         <v>38533</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -8824,13 +8825,13 @@
     </row>
     <row r="3" spans="1:52" s="15" customFormat="1">
       <c r="A3" s="63" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B3" s="63" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C3" s="63" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -8840,19 +8841,19 @@
     </row>
     <row r="4" spans="1:52" s="15" customFormat="1">
       <c r="A4" s="13" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -8861,16 +8862,16 @@
     </row>
     <row r="5" spans="1:52" s="15" customFormat="1">
       <c r="A5" s="40" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -8879,16 +8880,16 @@
     </row>
     <row r="6" spans="1:52" s="15" customFormat="1">
       <c r="A6" s="40" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -8897,16 +8898,16 @@
     </row>
     <row r="7" spans="1:52" s="15" customFormat="1">
       <c r="A7" s="40" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>964</v>
+      </c>
+      <c r="C7" s="10" t="s">
         <v>963</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>962</v>
-      </c>
       <c r="D7" s="10" t="s">
-        <v>880</v>
+        <v>881</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -8915,16 +8916,16 @@
     </row>
     <row r="8" spans="1:52" s="15" customFormat="1">
       <c r="A8" s="40" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>966</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>963</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>965</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>962</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>964</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -8933,16 +8934,16 @@
     </row>
     <row r="9" spans="1:52" s="15" customFormat="1">
       <c r="A9" s="40" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -8951,16 +8952,16 @@
     </row>
     <row r="10" spans="1:52" s="15" customFormat="1">
       <c r="A10" s="40" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -8969,16 +8970,16 @@
     </row>
     <row r="11" spans="1:52" s="15" customFormat="1" ht="39">
       <c r="A11" s="40" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -8987,16 +8988,16 @@
     </row>
     <row r="12" spans="1:52" s="15" customFormat="1" ht="39">
       <c r="A12" s="40" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -9005,16 +9006,16 @@
     </row>
     <row r="13" spans="1:52" s="15" customFormat="1" ht="39">
       <c r="A13" s="40" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -9023,16 +9024,16 @@
     </row>
     <row r="14" spans="1:52" s="15" customFormat="1">
       <c r="A14" s="40" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="C14" s="40" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -9041,16 +9042,16 @@
     </row>
     <row r="15" spans="1:52" s="15" customFormat="1" ht="26">
       <c r="A15" s="40" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -9059,16 +9060,16 @@
     </row>
     <row r="16" spans="1:52" s="15" customFormat="1" ht="39">
       <c r="A16" s="10" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -9077,16 +9078,16 @@
     </row>
     <row r="17" spans="1:8" s="15" customFormat="1" ht="39">
       <c r="A17" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -9095,16 +9096,16 @@
     </row>
     <row r="18" spans="1:8" s="15" customFormat="1" ht="26">
       <c r="A18" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -9113,16 +9114,16 @@
     </row>
     <row r="19" spans="1:8" s="15" customFormat="1" ht="39">
       <c r="A19" s="40" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -9131,16 +9132,16 @@
     </row>
     <row r="20" spans="1:8" s="15" customFormat="1" ht="39">
       <c r="A20" s="40" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -9149,16 +9150,16 @@
     </row>
     <row r="21" spans="1:8" s="15" customFormat="1" ht="26">
       <c r="A21" s="40" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -9167,16 +9168,16 @@
     </row>
     <row r="22" spans="1:8" s="15" customFormat="1">
       <c r="A22" s="40" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -9185,16 +9186,16 @@
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="A23" s="15" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -9203,16 +9204,16 @@
     </row>
     <row r="24" spans="1:8" s="15" customFormat="1" ht="39">
       <c r="A24" s="40" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -9221,16 +9222,16 @@
     </row>
     <row r="25" spans="1:8" s="15" customFormat="1" ht="39">
       <c r="A25" s="40" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -9239,16 +9240,16 @@
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" ht="52">
       <c r="A26" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B26" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D26" s="10" t="s">
         <v>95</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="D26" s="10" t="s">
-        <v>93</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -9257,16 +9258,16 @@
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" ht="26">
       <c r="A27" s="35" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>6</v>
-      </c>
-      <c r="B27" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="C27" s="10" t="s">
-        <v>3</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>4</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -9276,22 +9277,22 @@
     <row r="28" spans="1:8" s="15" customFormat="1" ht="26">
       <c r="A28" s="10"/>
       <c r="B28" s="13" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E28" s="31" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F28" s="13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G28" s="13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H28" s="33"/>
     </row>
@@ -9308,49 +9309,49 @@
     <row r="30" spans="1:8" s="15" customFormat="1" ht="26">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
       <c r="G30" s="10" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="H30" s="28"/>
     </row>
     <row r="31" spans="1:8" s="15" customFormat="1" ht="39">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
       <c r="G31" s="10" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="H31" s="28"/>
     </row>
     <row r="32" spans="1:8" s="15" customFormat="1" ht="52">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -9360,13 +9361,13 @@
     <row r="33" spans="1:8" s="15" customFormat="1" ht="52">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C33" s="28" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -9376,31 +9377,31 @@
     <row r="34" spans="1:8" s="15" customFormat="1" ht="78">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
       <c r="G34" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="H34" s="28"/>
     </row>
     <row r="35" spans="1:8" s="15" customFormat="1" ht="78">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -9410,13 +9411,13 @@
     <row r="36" spans="1:8" s="15" customFormat="1" ht="26">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -9426,13 +9427,13 @@
     <row r="37" spans="1:8" s="15" customFormat="1" ht="26">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -9442,13 +9443,13 @@
     <row r="38" spans="1:8" s="15" customFormat="1" ht="39">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -9458,13 +9459,13 @@
     <row r="39" spans="1:8" s="15" customFormat="1" ht="26">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -9474,10 +9475,10 @@
     <row r="40" spans="1:8" s="42" customFormat="1" ht="26">
       <c r="A40" s="35"/>
       <c r="B40" s="35" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="D40" s="35"/>
       <c r="E40" s="35"/>
@@ -9488,10 +9489,10 @@
     <row r="41" spans="1:8" s="42" customFormat="1" ht="26">
       <c r="A41" s="35"/>
       <c r="B41" s="35" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="D41" s="35"/>
       <c r="E41" s="35"/>
@@ -9502,10 +9503,10 @@
     <row r="42" spans="1:8" s="42" customFormat="1" ht="26">
       <c r="A42" s="35"/>
       <c r="B42" s="35" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="D42" s="35"/>
       <c r="E42" s="35"/>
@@ -9516,10 +9517,10 @@
     <row r="43" spans="1:8" s="42" customFormat="1" ht="26">
       <c r="A43" s="35"/>
       <c r="B43" s="35" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="D43" s="35"/>
       <c r="E43" s="35"/>
@@ -9530,31 +9531,31 @@
     <row r="44" spans="1:8" s="42" customFormat="1" ht="26">
       <c r="A44" s="35"/>
       <c r="B44" s="35" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="D44" s="35" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E44" s="35"/>
       <c r="F44" s="35"/>
       <c r="G44" s="35" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="H44" s="41"/>
     </row>
     <row r="45" spans="1:8" s="42" customFormat="1" ht="52">
       <c r="A45" s="35"/>
       <c r="B45" s="35" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="E45" s="35"/>
       <c r="F45" s="35"/>
@@ -9574,10 +9575,10 @@
     <row r="47" spans="1:8" ht="39">
       <c r="A47" s="35"/>
       <c r="B47" s="36" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C47" s="36" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D47" s="35"/>
       <c r="E47" s="37"/>
@@ -9587,33 +9588,33 @@
     </row>
     <row r="48" spans="1:8" ht="26">
       <c r="B48" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C48" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="52" spans="1:8" s="1" customFormat="1" ht="26">
       <c r="A52" s="13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E52" s="31" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F52" s="13"/>
       <c r="G52" s="13"/>
@@ -9621,7 +9622,7 @@
     </row>
     <row r="53" spans="1:8" s="1" customFormat="1" ht="26">
       <c r="A53" s="10" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B53" s="44"/>
       <c r="C53" s="44"/>
@@ -9633,32 +9634,32 @@
     </row>
     <row r="54" spans="1:8" s="1" customFormat="1" ht="52">
       <c r="A54" s="10" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B54" s="44"/>
       <c r="C54" s="44"/>
       <c r="D54" s="9" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="E54" s="45" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="F54" s="44" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="G54" s="44"/>
       <c r="H54" s="51"/>
     </row>
     <row r="55" spans="1:8" s="1" customFormat="1" ht="130">
       <c r="A55" s="10" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="B55" s="44" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="C55" s="44"/>
       <c r="D55" s="44" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="E55" s="45"/>
       <c r="F55" s="44"/>
@@ -9667,7 +9668,7 @@
     </row>
     <row r="56" spans="1:8" s="1" customFormat="1" ht="52">
       <c r="A56" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="B56" s="44"/>
       <c r="C56" s="44"/>
@@ -9679,57 +9680,57 @@
     </row>
     <row r="57" spans="1:8" ht="91">
       <c r="A57" s="10" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B57" s="7" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="91">
       <c r="A58" s="10" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B58" s="7" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="117">
       <c r="A59" s="10" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B59" s="7" t="s">
-        <v>1086</v>
+        <v>1087</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="117">
       <c r="A60" s="35" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="B60" s="7" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="D60" s="7" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="26">
       <c r="A61" s="35" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="C61" s="10"/>
     </row>
     <row r="62" spans="1:8">
       <c r="A62" s="35" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -9760,36 +9761,36 @@
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" ht="26">
       <c r="A1" s="13" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
       <c r="I1" s="47" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="J1" s="30" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" ht="65">
       <c r="A2" s="10" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C2" s="46">
         <v>38486</v>
@@ -9798,54 +9799,54 @@
         <v>38492</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="48" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" ht="65">
       <c r="A3" s="13" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="E3" s="31" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F3" s="10"/>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
       <c r="I3" s="48"/>
       <c r="J3" s="12" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
     </row>
     <row r="4" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A4" s="10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="E4" s="21"/>
       <c r="F4" s="10"/>
@@ -9853,21 +9854,21 @@
       <c r="H4" s="10"/>
       <c r="I4" s="48"/>
       <c r="J4" s="12" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="15" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>961</v>
+        <v>962</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="E5" s="21"/>
       <c r="F5" s="10"/>
@@ -9881,13 +9882,13 @@
         <v>1164</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="E6" s="21"/>
       <c r="F6" s="10"/>
@@ -9898,16 +9899,16 @@
     </row>
     <row r="7" spans="1:10" s="15" customFormat="1" ht="117">
       <c r="A7" s="10" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>849</v>
+        <v>850</v>
       </c>
       <c r="E7" s="21"/>
       <c r="F7" s="10"/>
@@ -9918,16 +9919,16 @@
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1">
       <c r="A8" s="10" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="E8" s="21"/>
       <c r="F8" s="10"/>
@@ -9938,16 +9939,16 @@
     </row>
     <row r="9" spans="1:10" s="15" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E9" s="21"/>
       <c r="F9" s="10"/>
@@ -9958,16 +9959,16 @@
     </row>
     <row r="10" spans="1:10" s="15" customFormat="1" ht="24" customHeight="1">
       <c r="A10" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="E10" s="21"/>
       <c r="F10" s="10"/>
@@ -9978,16 +9979,16 @@
     </row>
     <row r="11" spans="1:10" s="15" customFormat="1" ht="69" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>1003</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>932</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>1002</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>931</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>1001</v>
       </c>
       <c r="E11" s="21"/>
       <c r="F11" s="10"/>
@@ -9998,17 +9999,17 @@
     </row>
     <row r="12" spans="1:10" s="15" customFormat="1" ht="182">
       <c r="A12" s="10" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D12" s="10"/>
       <c r="E12" s="21" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="F12" s="10"/>
       <c r="G12" s="10"/>
@@ -10018,19 +10019,19 @@
     </row>
     <row r="13" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A13" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -10040,19 +10041,19 @@
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A14" s="10" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E14" s="21" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -10062,19 +10063,19 @@
     </row>
     <row r="15" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A15" s="10" t="s">
+        <v>666</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>1006</v>
+      </c>
+      <c r="E15" s="21" t="s">
         <v>665</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>240</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>1005</v>
-      </c>
-      <c r="E15" s="21" t="s">
-        <v>664</v>
       </c>
       <c r="F15" s="10"/>
       <c r="G15" s="10"/>
@@ -10084,19 +10085,19 @@
     </row>
     <row r="16" spans="1:10" s="15" customFormat="1" ht="78">
       <c r="A16" s="10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E16" s="21" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="F16" s="10"/>
       <c r="G16" s="10"/>
@@ -10106,16 +10107,16 @@
     </row>
     <row r="17" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A17" s="10" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E17" s="21"/>
       <c r="F17" s="10"/>
@@ -10126,16 +10127,16 @@
     </row>
     <row r="18" spans="1:10" s="15" customFormat="1">
       <c r="A18" s="10" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="E18" s="21"/>
       <c r="F18" s="10"/>
@@ -10146,16 +10147,16 @@
     </row>
     <row r="19" spans="1:10" s="15" customFormat="1">
       <c r="A19" s="10" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="E19" s="21"/>
       <c r="F19" s="10"/>
@@ -10166,16 +10167,16 @@
     </row>
     <row r="20" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A20" s="10" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="B20" s="10" t="s">
         <v>1158</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E20" s="21"/>
       <c r="F20" s="10"/>
@@ -10186,16 +10187,16 @@
     </row>
     <row r="21" spans="1:10" s="15" customFormat="1" ht="52">
       <c r="A21" s="10" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="B21" s="10" t="s">
         <v>1159</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E21" s="21"/>
       <c r="F21" s="10"/>
@@ -10206,16 +10207,16 @@
     </row>
     <row r="22" spans="1:10" s="15" customFormat="1">
       <c r="A22" s="10" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E22" s="21"/>
       <c r="F22" s="10"/>
@@ -10226,16 +10227,16 @@
     </row>
     <row r="23" spans="1:10" s="15" customFormat="1">
       <c r="A23" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="E23" s="21"/>
       <c r="F23" s="10"/>
@@ -10246,16 +10247,16 @@
     </row>
     <row r="24" spans="1:10" s="15" customFormat="1" ht="52">
       <c r="A24" s="10" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E24" s="21"/>
       <c r="F24" s="10"/>
@@ -10266,16 +10267,16 @@
     </row>
     <row r="25" spans="1:10" s="15" customFormat="1" ht="52">
       <c r="A25" s="10" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="E25" s="21"/>
       <c r="F25" s="10"/>
@@ -10286,16 +10287,16 @@
     </row>
     <row r="26" spans="1:10" s="15" customFormat="1" ht="52">
       <c r="A26" s="10" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
       <c r="E26" s="21"/>
       <c r="F26" s="10"/>
@@ -10306,16 +10307,16 @@
     </row>
     <row r="27" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A27" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="E27" s="21"/>
       <c r="F27" s="10"/>
@@ -10326,16 +10327,16 @@
     </row>
     <row r="28" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A28" s="10" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="E28" s="21"/>
       <c r="F28" s="10"/>
@@ -10346,16 +10347,16 @@
     </row>
     <row r="29" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A29" s="15" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D29" s="15" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="E29" s="21"/>
       <c r="F29" s="10"/>
@@ -10366,16 +10367,16 @@
     </row>
     <row r="30" spans="1:10" s="15" customFormat="1" ht="78">
       <c r="A30" s="10" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="E30" s="21"/>
       <c r="F30" s="10"/>
@@ -10386,16 +10387,16 @@
     </row>
     <row r="31" spans="1:10" s="15" customFormat="1" ht="52">
       <c r="A31" s="10" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>1162</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="E31" s="21"/>
       <c r="F31" s="10"/>
@@ -10406,16 +10407,16 @@
     </row>
     <row r="32" spans="1:10" s="15" customFormat="1" ht="78">
       <c r="A32" s="10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>807</v>
+        <v>808</v>
       </c>
       <c r="E32" s="21"/>
       <c r="F32" s="10"/>
@@ -10426,16 +10427,16 @@
     </row>
     <row r="33" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A33" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="E33" s="21"/>
       <c r="F33" s="10"/>
@@ -10446,16 +10447,16 @@
     </row>
     <row r="34" spans="1:10" s="15" customFormat="1" ht="65">
       <c r="A34" s="10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>784</v>
+        <v>785</v>
       </c>
       <c r="E34" s="21"/>
       <c r="F34" s="10"/>
@@ -10466,16 +10467,16 @@
     </row>
     <row r="35" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A35" s="10" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="E35" s="21"/>
       <c r="F35" s="10"/>
@@ -10486,16 +10487,16 @@
     </row>
     <row r="36" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A36" s="10" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="E36" s="21"/>
       <c r="F36" s="10"/>
@@ -10543,25 +10544,25 @@
     <row r="40" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A40" s="10"/>
       <c r="B40" s="13" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G40" s="13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H40" s="13" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="I40" s="48"/>
       <c r="J40" s="12"/>
@@ -10569,20 +10570,20 @@
     <row r="41" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A41" s="10"/>
       <c r="B41" s="10" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="E41" s="62" t="s">
-        <v>993</v>
+        <v>994</v>
       </c>
       <c r="F41" s="10"/>
       <c r="G41" s="10" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H41" s="10"/>
       <c r="I41" s="48"/>
@@ -10591,18 +10592,18 @@
     <row r="42" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E42" s="21"/>
       <c r="F42" s="10"/>
       <c r="G42" s="10" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H42" s="10"/>
       <c r="I42" s="48"/>
@@ -10611,40 +10612,40 @@
     <row r="43" spans="1:10" s="15" customFormat="1" ht="78">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="E43" s="21"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H43" s="10"/>
       <c r="I43" s="48" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="J43" s="12"/>
     </row>
     <row r="44" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E44" s="21"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="48"/>
@@ -10653,13 +10654,13 @@
     <row r="45" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="C45" s="10" t="s">
         <v>1160</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="E45" s="21"/>
       <c r="F45" s="10"/>
@@ -10671,13 +10672,13 @@
     <row r="46" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C46" s="10" t="s">
         <v>1161</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="E46" s="21"/>
       <c r="F46" s="10"/>
@@ -10689,18 +10690,18 @@
     <row r="47" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C47" s="22" t="s">
         <v>1043</v>
       </c>
-      <c r="C47" s="22" t="s">
-        <v>1042</v>
-      </c>
       <c r="D47" s="22" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E47" s="21"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="48"/>
@@ -10709,18 +10710,18 @@
     <row r="48" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C48" s="22" t="s">
-        <v>1008</v>
+        <v>1009</v>
       </c>
       <c r="D48" s="22" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="E48" s="21"/>
       <c r="F48" s="10"/>
       <c r="G48" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="H48" s="10"/>
       <c r="I48" s="48"/>
@@ -10729,18 +10730,18 @@
     <row r="49" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C49" s="22" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E49" s="21"/>
       <c r="F49" s="10"/>
       <c r="G49" s="10" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="H49" s="10"/>
       <c r="I49" s="48"/>
@@ -10749,42 +10750,42 @@
     <row r="50" spans="1:10" s="15" customFormat="1">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C50" s="22" t="s">
-        <v>992</v>
+        <v>993</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E50" s="21"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10"/>
       <c r="H50" s="10"/>
       <c r="I50" s="48" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="J50" s="12"/>
     </row>
     <row r="51" spans="1:10" s="15" customFormat="1" ht="52">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="C51" s="22" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="E51" s="21"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="48" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="J51" s="12"/>
     </row>
@@ -10803,10 +10804,10 @@
     <row r="53" spans="1:10" s="15" customFormat="1" ht="65">
       <c r="A53" s="10"/>
       <c r="B53" s="13" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="C53" s="13" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="D53" s="10"/>
       <c r="E53" s="21"/>
@@ -10819,10 +10820,10 @@
     <row r="54" spans="1:10" s="15" customFormat="1">
       <c r="A54" s="10"/>
       <c r="B54" s="10" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="21"/>
@@ -10835,10 +10836,10 @@
     <row r="55" spans="1:10" s="15" customFormat="1">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="21"/>
@@ -10851,10 +10852,10 @@
     <row r="56" spans="1:10" s="15" customFormat="1">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
-        <v>1040</v>
+        <v>1041</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="21"/>
@@ -10866,19 +10867,19 @@
     </row>
     <row r="57" spans="1:10" s="18" customFormat="1" ht="26">
       <c r="A57" s="13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B57" s="13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C57" s="13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E57" s="31" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F57" s="13"/>
       <c r="G57" s="13"/>
@@ -10919,10 +10920,10 @@
         <v>lps+lbp-&gt;lbplps</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D60" s="10">
         <v>11079463</v>
@@ -10940,10 +10941,10 @@
         <v>cs+lbplps-&gt;cslps + lbp</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="D61" s="10">
         <v>7537731</v>
@@ -10961,10 +10962,10 @@
         <v>r1lps+r1lps -&gt; rlps2 + 2 cs</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D62" s="10">
         <v>14517279</v>
@@ -10982,10 +10983,10 @@
         <v>rlps2 + tpip2 -&gt; rlps2-tirap+pip2</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D63" s="10">
         <v>11544529</v>
@@ -11003,10 +11004,10 @@
         <v>rlps2+ tram -&gt; rlps2-tram</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D64" s="10">
         <v>17457343</v>
@@ -11024,10 +11025,10 @@
         <v>rlps2-tirap + myd88 -&gt; rlps2-tm</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D65" s="10">
         <v>16751103</v>
@@ -11045,10 +11046,10 @@
         <v>rlps2-tram + trif -&gt; rlps2-tt</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="D66" s="10">
         <v>14519765</v>
@@ -11103,24 +11104,24 @@
   <sheetData>
     <row r="1" spans="1:52" s="15" customFormat="1" ht="26">
       <c r="A1" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="34" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="I1" s="52"/>
       <c r="J1" s="18"/>
@@ -11169,10 +11170,10 @@
     </row>
     <row r="2" spans="1:52" ht="52">
       <c r="A2" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
@@ -11183,16 +11184,16 @@
     </row>
     <row r="3" spans="1:52" s="15" customFormat="1" ht="26">
       <c r="A3" s="10" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
@@ -11202,19 +11203,19 @@
     </row>
     <row r="4" spans="1:52" s="15" customFormat="1">
       <c r="A4" s="13" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -11223,16 +11224,16 @@
     </row>
     <row r="5" spans="1:52" ht="52">
       <c r="A5" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -11241,16 +11242,16 @@
     </row>
     <row r="6" spans="1:52" ht="52">
       <c r="A6" s="10" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -11259,16 +11260,16 @@
     </row>
     <row r="7" spans="1:52" ht="52">
       <c r="A7" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -11277,13 +11278,13 @@
     </row>
     <row r="8" spans="1:52" ht="78">
       <c r="A8" s="10" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D8" s="10"/>
       <c r="E8" s="10"/>
@@ -11293,13 +11294,13 @@
     </row>
     <row r="9" spans="1:52" ht="78">
       <c r="A9" s="10" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -11309,13 +11310,13 @@
     </row>
     <row r="10" spans="1:52" ht="78">
       <c r="A10" s="10" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -11335,16 +11336,16 @@
     </row>
     <row r="12" spans="1:52" ht="52">
       <c r="A12" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -11353,16 +11354,16 @@
     </row>
     <row r="13" spans="1:52" ht="78">
       <c r="A13" s="10" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -11371,16 +11372,16 @@
     </row>
     <row r="14" spans="1:52" ht="52">
       <c r="A14" s="10" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -11389,16 +11390,16 @@
     </row>
     <row r="15" spans="1:52" ht="78">
       <c r="A15" s="10" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -11407,13 +11408,13 @@
     </row>
     <row r="16" spans="1:52" ht="46" customHeight="1">
       <c r="A16" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="10"/>
@@ -11423,13 +11424,13 @@
     </row>
     <row r="17" spans="1:8" ht="41" customHeight="1">
       <c r="A17" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="10"/>
@@ -11439,13 +11440,13 @@
     </row>
     <row r="18" spans="1:8" ht="41" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="10"/>
@@ -11455,13 +11456,13 @@
     </row>
     <row r="19" spans="1:8" ht="41" customHeight="1">
       <c r="A19" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="D19" s="10"/>
       <c r="E19" s="10"/>
@@ -11471,13 +11472,13 @@
     </row>
     <row r="20" spans="1:8" ht="41" customHeight="1">
       <c r="A20" s="10" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D20" s="10"/>
       <c r="E20" s="10"/>
@@ -11487,13 +11488,13 @@
     </row>
     <row r="21" spans="1:8" ht="41" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D21" s="10"/>
       <c r="E21" s="10"/>
@@ -11504,35 +11505,35 @@
     <row r="22" spans="1:8" ht="26">
       <c r="A22" s="10"/>
       <c r="B22" s="13" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E22" s="31" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F22" s="13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G22" s="13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="H22" s="43"/>
     </row>
     <row r="23" spans="1:8" ht="52">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C23" s="22" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D23" s="22" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E23" s="31"/>
       <c r="F23" s="13"/>
@@ -11542,19 +11543,19 @@
     <row r="24" spans="1:8" ht="117">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
       <c r="G24" s="10"/>
       <c r="H24" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -11570,7 +11571,7 @@
     <row r="26" spans="1:8" ht="52">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C26" s="10"/>
       <c r="D26" s="10"/>
@@ -11578,19 +11579,19 @@
       <c r="F26" s="10"/>
       <c r="G26" s="10"/>
       <c r="H26" s="10" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="52">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -11600,13 +11601,13 @@
     <row r="28" spans="1:8" ht="52">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -11616,7 +11617,7 @@
     <row r="29" spans="1:8" ht="52">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C29" s="10"/>
       <c r="D29" s="10"/>
@@ -11628,13 +11629,13 @@
     <row r="30" spans="1:8" ht="52">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -11644,13 +11645,13 @@
     <row r="31" spans="1:8" ht="39">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -11660,13 +11661,13 @@
     <row r="32" spans="1:8" ht="52">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -11676,13 +11677,13 @@
     <row r="33" spans="1:8" ht="39">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -11692,10 +11693,10 @@
     <row r="34" spans="1:8" ht="39">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D34" s="10"/>
       <c r="E34" s="10"/>
@@ -11706,13 +11707,13 @@
     <row r="35" spans="1:8" ht="39">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -11722,13 +11723,13 @@
     <row r="36" spans="1:8" ht="39">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -11738,10 +11739,10 @@
     <row r="37" spans="1:8" ht="26">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D37" s="10"/>
       <c r="E37" s="10"/>
@@ -11752,13 +11753,13 @@
     <row r="38" spans="1:8" ht="39">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -11768,10 +11769,10 @@
     <row r="39" spans="1:8" ht="39">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="D39" s="10"/>
       <c r="E39" s="10"/>
@@ -11782,10 +11783,10 @@
     <row r="40" spans="1:8" ht="65">
       <c r="A40" s="10"/>
       <c r="B40" s="13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C40" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D40" s="10"/>
       <c r="E40" s="21"/>
@@ -11885,19 +11886,19 @@
     </row>
     <row r="50" spans="1:8" s="1" customFormat="1" ht="26">
       <c r="A50" s="13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B50" s="13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E50" s="31" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F50" s="13"/>
       <c r="G50" s="13"/>
@@ -11915,16 +11916,16 @@
     </row>
     <row r="52" spans="1:8" ht="78" customHeight="1">
       <c r="A52" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="C52" s="10" t="s">
         <v>1135</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -11933,14 +11934,14 @@
     </row>
     <row r="53" spans="1:8" ht="52">
       <c r="A53" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B53" s="10" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C53" s="10"/>
       <c r="D53" s="10" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -11949,14 +11950,14 @@
     </row>
     <row r="54" spans="1:8" ht="52">
       <c r="A54" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C54" s="10"/>
       <c r="D54" s="10" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
@@ -11965,14 +11966,14 @@
     </row>
     <row r="55" spans="1:8" ht="52">
       <c r="A55" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C55" s="10"/>
       <c r="D55" s="10" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
@@ -11981,14 +11982,14 @@
     </row>
     <row r="56" spans="1:8" ht="52">
       <c r="A56" s="10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C56" s="10"/>
       <c r="D56" s="10" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="E56" s="10"/>
       <c r="F56" s="10"/>
@@ -12024,121 +12025,121 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39">
       <c r="A1" s="10" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="247">
       <c r="A2" s="10" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="52">
       <c r="A4" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26">
       <c r="A5" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="117">
       <c r="A6" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="130">
       <c r="A7" s="57" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B7" s="57" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C7" s="57" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="95" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="26">
       <c r="A9" s="10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="117">
       <c r="A10" s="10" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="195">
       <c r="A11" s="10" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
   </sheetData>
@@ -12173,25 +12174,25 @@
   <sheetData>
     <row r="1" spans="1:53" s="15" customFormat="1" ht="26">
       <c r="A1" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E1" s="13"/>
       <c r="F1" s="31" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
       <c r="I1" s="34" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="J1" s="52"/>
       <c r="K1" s="18"/>
@@ -12240,27 +12241,27 @@
     </row>
     <row r="2" spans="1:53">
       <c r="A2" s="10" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="15" customFormat="1" ht="26">
       <c r="A3" s="10" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D3" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="E3" s="10" t="s">
-        <v>70</v>
-      </c>
       <c r="F3" s="10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="G3" s="10"/>
       <c r="H3" s="10"/>
@@ -12269,79 +12270,79 @@
     </row>
     <row r="4" spans="1:53">
       <c r="B4" s="15" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
     </row>
     <row r="5" spans="1:53">
       <c r="C5" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="6" spans="1:53">
       <c r="C6" s="10" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="C7" s="10" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="8" spans="1:53">
       <c r="C8" s="10" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
     </row>
     <row r="9" spans="1:53" ht="26">
       <c r="C9" s="10" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
     </row>
     <row r="10" spans="1:53">
       <c r="C10" s="10" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
     </row>
     <row r="11" spans="1:53">
       <c r="C11" s="10" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
     </row>
     <row r="12" spans="1:53">
       <c r="C12" s="10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="13" spans="1:53">
       <c r="C13" s="10" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
     </row>
     <row r="14" spans="1:53" s="15" customFormat="1">
       <c r="A14" s="13" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E14" s="13"/>
       <c r="F14" s="31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="G14" s="10"/>
       <c r="H14" s="10"/>
@@ -12350,96 +12351,96 @@
     </row>
     <row r="15" spans="1:53" ht="65">
       <c r="A15" s="10" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="16" spans="1:53" ht="91">
       <c r="A16" s="10" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" s="10" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="26">
       <c r="A18" s="10" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="B18" s="22" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="19" spans="1:9" ht="65">
       <c r="A19" s="10" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="20" spans="1:9" ht="52">
       <c r="A20" s="10" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="52">
       <c r="A21" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="52">
       <c r="A22" s="10" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="104">
@@ -12447,99 +12448,99 @@
         <v>1133</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="52">
       <c r="A24" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="26">
       <c r="A25" s="10" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="52">
       <c r="A26" s="10" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="39">
       <c r="A27" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="26">
       <c r="B32" s="13" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C32" s="13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E32" s="13"/>
       <c r="F32" s="31" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G32" s="13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H32" s="13" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I32" s="43"/>
     </row>
     <row r="33" spans="1:9" ht="26">
       <c r="B33" s="10" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="F33" s="31"/>
       <c r="G33" s="13"/>
@@ -12548,43 +12549,43 @@
     </row>
     <row r="34" spans="1:9" ht="65">
       <c r="B34" s="40" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H34" s="40" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="35" spans="1:9" ht="52">
       <c r="B35" s="10" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="39">
       <c r="B36" s="10" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="37" spans="1:9" ht="91">
       <c r="B37" s="10" t="s">
-        <v>1079</v>
+        <v>1080</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:9" ht="156">
@@ -12592,46 +12593,46 @@
         <v>1163</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="I38" s="28" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:9" ht="156">
       <c r="B39" s="10" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="40" spans="1:9" ht="117">
       <c r="B40" s="10" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="I40" s="28" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="41" spans="1:9" ht="65">
       <c r="B41" s="13" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C41" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F41" s="21"/>
       <c r="H41" s="10"/>
@@ -12644,20 +12645,20 @@
     </row>
     <row r="43" spans="1:9" s="1" customFormat="1" ht="26">
       <c r="A43" s="13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E43" s="13"/>
       <c r="F43" s="31" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G43" s="13"/>
       <c r="H43" s="13"/>
@@ -12665,58 +12666,58 @@
     </row>
     <row r="44" spans="1:9" ht="338">
       <c r="A44" s="10" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B44" s="10" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="C44" s="10" t="s">
         <v>1135</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
     </row>
     <row r="45" spans="1:9" ht="104">
       <c r="A45" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="B45" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B45" s="10" t="s">
-        <v>86</v>
-      </c>
       <c r="C45" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
     </row>
     <row r="46" spans="1:9" ht="130">
       <c r="A46" s="40" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B46" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>648</v>
+      </c>
+      <c r="D46" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="C46" s="10" t="s">
-        <v>647</v>
-      </c>
-      <c r="D46" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="47" spans="1:9" ht="130">
       <c r="A47" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B47" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="D47" s="10" t="s">
         <v>89</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D47" s="10" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:9" ht="234">
@@ -12724,55 +12725,55 @@
         <v>1136</v>
       </c>
       <c r="B48" s="10" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>1093</v>
+      </c>
+      <c r="D48" s="10" t="s">
         <v>1091</v>
-      </c>
-      <c r="C48" s="10" t="s">
-        <v>1092</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>1090</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="78">
       <c r="A49" s="10" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="195">
       <c r="A50" s="10" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C50" s="10" t="s">
         <v>1135</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="117">
       <c r="A51" s="10" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="C51" s="10" t="s">
         <v>1135</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
     </row>
   </sheetData>
@@ -12802,102 +12803,102 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B2" s="55" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C2" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="D2" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="E2" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="156">
       <c r="A4" s="43" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C4" s="40" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="E4" s="40" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="78">
       <c r="B5" s="40" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="52">
       <c r="B6" s="40" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="91">
       <c r="B7" s="40" t="s">
-        <v>889</v>
+        <v>890</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="104">
       <c r="B8" s="43" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="65">
       <c r="B9" s="43" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="65">
       <c r="B10" s="43" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="78">
       <c r="B11" s="43" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="52">
       <c r="B12" s="43" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="104">
       <c r="B13" s="40" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="104" customHeight="1">
       <c r="B14" s="40" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="104" customHeight="1">
       <c r="B15" s="40" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="104" customHeight="1"/>
     <row r="17" spans="2:2" ht="130">
       <c r="B17" s="40" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="221">
       <c r="B18" s="40" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
     </row>
   </sheetData>
@@ -12933,24 +12934,24 @@
   <sheetData>
     <row r="1" spans="1:52" s="15" customFormat="1" ht="26">
       <c r="A1" s="13" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="E1" s="31" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="58"/>
       <c r="H1" s="34" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
       <c r="I1" s="52"/>
       <c r="J1" s="18"/>
@@ -12999,27 +13000,27 @@
     </row>
     <row r="2" spans="1:52" ht="26">
       <c r="A2" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C2" s="10"/>
       <c r="D2" s="10"/>
       <c r="E2" s="10" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:52" s="15" customFormat="1" ht="26">
       <c r="A3" s="10" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -13029,19 +13030,19 @@
     </row>
     <row r="4" spans="1:52" s="15" customFormat="1">
       <c r="A4" s="13" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="E4" s="31" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="59"/>
@@ -13058,29 +13059,29 @@
     </row>
     <row r="6" spans="1:52">
       <c r="A6" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:52">
       <c r="A7" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -13088,29 +13089,29 @@
     </row>
     <row r="8" spans="1:52" ht="26">
       <c r="A8" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D9" s="10"/>
       <c r="E9" s="10"/>
@@ -13118,13 +13119,13 @@
     </row>
     <row r="10" spans="1:52">
       <c r="A10" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>962</v>
+        <v>963</v>
       </c>
       <c r="D10" s="10"/>
       <c r="E10" s="10"/>
@@ -13132,144 +13133,144 @@
     </row>
     <row r="11" spans="1:52">
       <c r="A11" s="10" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:52" ht="65">
       <c r="A12" s="10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>1056</v>
+        <v>1057</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:52" ht="65">
       <c r="A13" s="10" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:52">
       <c r="A14" s="10" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:52" ht="26">
       <c r="A15" s="10" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:52" ht="39">
       <c r="A16" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="26">
       <c r="A17" s="10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="26">
       <c r="A18" s="10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="52">
       <c r="A19" s="10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="B19" s="10" t="s">
+        <v>717</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>619</v>
+      </c>
+      <c r="D19" s="10" t="s">
         <v>716</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>618</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>715</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -13277,31 +13278,31 @@
     <row r="20" spans="1:9" ht="26">
       <c r="A20" s="10"/>
       <c r="B20" s="13" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="E20" s="31" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F20" s="13" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="39">
       <c r="A21" s="10"/>
       <c r="B21" s="10" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="10"/>
@@ -13312,55 +13313,55 @@
     <row r="22" spans="1:9" ht="65">
       <c r="A22" s="10"/>
       <c r="B22" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C22" s="10"/>
       <c r="D22" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="53" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I22" s="61" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="52">
       <c r="A23" s="10"/>
       <c r="B23" s="10" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
       <c r="G23" s="53" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="H23" s="10"/>
       <c r="I23" s="7" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="52">
       <c r="A24" s="10"/>
       <c r="B24" s="10" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -13368,13 +13369,13 @@
     <row r="25" spans="1:9" ht="39">
       <c r="A25" s="10"/>
       <c r="B25" s="10" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -13382,13 +13383,13 @@
     <row r="26" spans="1:9" ht="52">
       <c r="A26" s="10"/>
       <c r="B26" s="10" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -13396,30 +13397,30 @@
     <row r="27" spans="1:9" ht="39">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>156</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>154</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
       <c r="G27" s="60" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="26">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -13427,13 +13428,13 @@
     <row r="29" spans="1:9" ht="26">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -13452,7 +13453,7 @@
         <v>1134</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D31" s="10"/>
       <c r="E31" s="10"/>
@@ -13470,16 +13471,16 @@
     </row>
     <row r="33" spans="1:8" ht="26">
       <c r="A33" s="13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -13490,7 +13491,7 @@
       <c r="C34" s="10"/>
       <c r="D34" s="10"/>
       <c r="E34" s="31" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F34" s="13"/>
       <c r="G34" s="58"/>
@@ -13498,58 +13499,58 @@
     </row>
     <row r="35" spans="1:8" ht="156">
       <c r="A35" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:8" ht="117">
       <c r="A36" s="10" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C36" s="10"/>
       <c r="D36" s="10" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:8" ht="117">
       <c r="A37" s="10" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C37" s="10"/>
       <c r="D37" s="10" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:8" ht="156">
       <c r="A38" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>

--- a/src/ontology/immunology/ido-s4lps-tlr4.xlsx
+++ b/src/ontology/immunology/ido-s4lps-tlr4.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1890" uniqueCount="1310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1891" uniqueCount="1311">
   <si>
     <t>GO:0035362</t>
     <phoneticPr fontId="12" type="noConversion"/>
@@ -50,19 +50,22 @@
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
+    <t>SO:0000279</t>
+  </si>
+  <si>
+    <t>Interferon stimulated response element</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>SO:submitted</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
+    <t>dna</t>
+    <phoneticPr fontId="12" type="noConversion"/>
+  </si>
+  <si>
     <t>SO:0000279 was too general. Alan submitted term request https://sourceforge.net/tracker/?func=detail&amp;atid=810408&amp;aid=2981725&amp;group_id=72703</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>Interferon stimulated response element</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>SO:submitted</t>
-    <phoneticPr fontId="12" type="noConversion"/>
-  </si>
-  <si>
-    <t>dna</t>
     <phoneticPr fontId="12" type="noConversion"/>
   </si>
   <si>
@@ -5835,32 +5838,32 @@
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
       <c r="A1" s="9" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
       <c r="H1" s="4" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="26">
       <c r="A2" s="10" t="s">
-        <v>1116</v>
+        <v>1117</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C2" s="11">
         <v>38493</v>
@@ -5869,7 +5872,7 @@
         <v>38526</v>
       </c>
       <c r="E2" s="12" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F2" s="12"/>
       <c r="G2" s="12"/>
@@ -5877,10 +5880,10 @@
     </row>
     <row r="3" spans="1:9" s="76" customFormat="1">
       <c r="A3" s="74" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>1264</v>
+        <v>1265</v>
       </c>
       <c r="C3" s="74"/>
       <c r="D3" s="74"/>
@@ -5891,19 +5894,19 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F4" s="15"/>
       <c r="G4" s="15"/>
@@ -5912,16 +5915,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="73" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B5" s="73" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D5" s="73" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E5" s="14"/>
       <c r="F5" s="15"/>
@@ -5931,16 +5934,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="10" t="s">
-        <v>1077</v>
+        <v>1078</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>822</v>
+        <v>823</v>
       </c>
       <c r="E6" s="12"/>
       <c r="F6" s="12"/>
@@ -5949,16 +5952,16 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="10" t="s">
-        <v>824</v>
+        <v>825</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E7" s="12"/>
       <c r="F7" s="12"/>
@@ -5967,16 +5970,16 @@
     </row>
     <row r="8" spans="1:9" ht="39">
       <c r="A8" s="10" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B8" s="17" t="s">
+        <v>1191</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>688</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>1190</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>687</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>1189</v>
       </c>
       <c r="E8" s="12"/>
       <c r="F8" s="12"/>
@@ -5985,16 +5988,16 @@
     </row>
     <row r="9" spans="1:9" ht="39">
       <c r="A9" s="10" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>1193</v>
+        <v>1194</v>
       </c>
       <c r="E9" s="12"/>
       <c r="F9" s="12"/>
@@ -6003,16 +6006,16 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="10" t="s">
-        <v>825</v>
+        <v>826</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>980</v>
+        <v>981</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
@@ -6021,16 +6024,16 @@
     </row>
     <row r="11" spans="1:9" ht="39">
       <c r="A11" s="10" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1131</v>
+        <v>1132</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="E11" s="12"/>
       <c r="F11" s="12"/>
@@ -6039,16 +6042,16 @@
     </row>
     <row r="12" spans="1:9" ht="39">
       <c r="A12" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E12" s="12"/>
       <c r="F12" s="12"/>
@@ -6057,16 +6060,16 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" s="10" t="s">
-        <v>884</v>
+        <v>885</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>953</v>
+        <v>954</v>
       </c>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
@@ -6075,16 +6078,16 @@
     </row>
     <row r="14" spans="1:9" ht="39">
       <c r="A14" s="10" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>954</v>
+        <v>955</v>
       </c>
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
@@ -6093,16 +6096,16 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" s="10" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>804</v>
+        <v>805</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1191</v>
+        <v>1192</v>
       </c>
       <c r="E15" s="12"/>
       <c r="F15" s="12"/>
@@ -6111,13 +6114,13 @@
     </row>
     <row r="16" spans="1:9" ht="26">
       <c r="A16" s="10" t="s">
+        <v>583</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>808</v>
+      </c>
+      <c r="C16" s="10" t="s">
         <v>582</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>807</v>
-      </c>
-      <c r="C16" s="10" t="s">
-        <v>581</v>
       </c>
       <c r="D16" s="10"/>
       <c r="E16" s="12"/>
@@ -6127,13 +6130,13 @@
     </row>
     <row r="17" spans="1:8" ht="26">
       <c r="A17" s="10" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="12"/>
@@ -6143,16 +6146,16 @@
     </row>
     <row r="18" spans="1:8">
       <c r="A18" s="10" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>1194</v>
+        <v>1195</v>
       </c>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
@@ -6160,16 +6163,16 @@
     </row>
     <row r="19" spans="1:8" ht="26">
       <c r="A19" s="7" t="s">
+        <v>386</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>785</v>
+      </c>
+      <c r="C19" s="10" t="s">
         <v>385</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>784</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>384</v>
-      </c>
       <c r="D19" s="10" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="12"/>
@@ -6178,16 +6181,16 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="72" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1109</v>
+        <v>1110</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="12"/>
@@ -6196,16 +6199,16 @@
     </row>
     <row r="21" spans="1:8" ht="26">
       <c r="A21" s="10" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>956</v>
+        <v>957</v>
       </c>
       <c r="E21" s="12"/>
       <c r="F21" s="12"/>
@@ -6214,16 +6217,16 @@
     </row>
     <row r="22" spans="1:8" ht="26">
       <c r="A22" s="10" t="s">
-        <v>955</v>
+        <v>956</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>1044</v>
+        <v>1045</v>
       </c>
       <c r="E22" s="12"/>
       <c r="F22" s="12"/>
@@ -6232,14 +6235,14 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C23" s="10"/>
       <c r="D23" s="10" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="E23" s="12"/>
       <c r="F23" s="12"/>
@@ -6248,16 +6251,16 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="10" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>1192</v>
+        <v>1193</v>
       </c>
       <c r="E24" s="12"/>
       <c r="F24" s="12"/>
@@ -6266,16 +6269,16 @@
     </row>
     <row r="25" spans="1:8" ht="39">
       <c r="A25" s="10" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>1045</v>
+        <v>1046</v>
       </c>
       <c r="E25" s="12"/>
       <c r="F25" s="12"/>
@@ -6284,16 +6287,16 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="10" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>840</v>
+        <v>841</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>1046</v>
+        <v>1047</v>
       </c>
       <c r="E26" s="12"/>
       <c r="F26" s="12"/>
@@ -6302,16 +6305,16 @@
     </row>
     <row r="27" spans="1:8" ht="26">
       <c r="A27" s="10" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="E27" s="12"/>
       <c r="F27" s="12"/>
@@ -6320,16 +6323,16 @@
     </row>
     <row r="28" spans="1:8" ht="26">
       <c r="A28" s="10" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="E28" s="12"/>
       <c r="F28" s="12"/>
@@ -6338,16 +6341,16 @@
     </row>
     <row r="29" spans="1:8" ht="26">
       <c r="A29" s="10" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="E29" s="12"/>
       <c r="F29" s="12"/>
@@ -6356,16 +6359,16 @@
     </row>
     <row r="30" spans="1:8" ht="39">
       <c r="A30" s="10" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>841</v>
+        <v>842</v>
       </c>
       <c r="E30" s="12"/>
       <c r="F30" s="12"/>
@@ -6374,16 +6377,16 @@
     </row>
     <row r="31" spans="1:8" ht="26">
       <c r="A31" s="10" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E31" s="12"/>
       <c r="F31" s="12"/>
@@ -6392,16 +6395,16 @@
     </row>
     <row r="32" spans="1:8" ht="26">
       <c r="A32" s="10" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E32" s="12"/>
       <c r="F32" s="12"/>
@@ -6410,16 +6413,16 @@
     </row>
     <row r="33" spans="1:8" ht="26">
       <c r="A33" s="10" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>1219</v>
+        <v>1220</v>
       </c>
       <c r="E33" s="12"/>
       <c r="F33" s="12"/>
@@ -6428,16 +6431,16 @@
     </row>
     <row r="34" spans="1:8" ht="26">
       <c r="A34" s="10" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>1220</v>
+        <v>1221</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -6446,16 +6449,16 @@
     </row>
     <row r="35" spans="1:8" s="7" customFormat="1" ht="26">
       <c r="A35" s="10" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>1221</v>
+        <v>1222</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -6464,16 +6467,16 @@
     </row>
     <row r="36" spans="1:8" s="7" customFormat="1" ht="39">
       <c r="A36" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -6482,16 +6485,16 @@
     </row>
     <row r="37" spans="1:8" ht="26">
       <c r="A37" s="10" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E37" s="12"/>
       <c r="F37" s="12"/>
@@ -6500,16 +6503,16 @@
     </row>
     <row r="38" spans="1:8" ht="39">
       <c r="A38" s="10" t="s">
-        <v>787</v>
+        <v>788</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>789</v>
+        <v>790</v>
       </c>
       <c r="E38" s="12"/>
       <c r="F38" s="12"/>
@@ -6518,16 +6521,16 @@
     </row>
     <row r="39" spans="1:8" ht="26">
       <c r="A39" s="10" t="s">
-        <v>788</v>
+        <v>789</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D39" s="10" t="s">
-        <v>1195</v>
+        <v>1196</v>
       </c>
       <c r="E39" s="12"/>
       <c r="F39" s="12"/>
@@ -6536,16 +6539,16 @@
     </row>
     <row r="40" spans="1:8" ht="26">
       <c r="A40" s="10" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E40" s="12"/>
       <c r="F40" s="12"/>
@@ -6554,16 +6557,16 @@
     </row>
     <row r="41" spans="1:8" ht="39">
       <c r="A41" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>1247</v>
+        <v>1248</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>1248</v>
+        <v>1249</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="12"/>
@@ -6572,16 +6575,16 @@
     </row>
     <row r="42" spans="1:8">
       <c r="A42" s="10" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>1249</v>
+        <v>1250</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="12"/>
@@ -6590,16 +6593,16 @@
     </row>
     <row r="43" spans="1:8">
       <c r="A43" s="10" t="s">
-        <v>1123</v>
+        <v>1124</v>
       </c>
       <c r="B43" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="E43" s="12"/>
       <c r="F43" s="12"/>
@@ -6608,16 +6611,16 @@
     </row>
     <row r="44" spans="1:8" ht="39">
       <c r="A44" s="10" t="s">
-        <v>1018</v>
+        <v>1019</v>
       </c>
       <c r="B44" s="72" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="12"/>
@@ -6626,16 +6629,16 @@
     </row>
     <row r="45" spans="1:8" ht="26">
       <c r="A45" s="10" t="s">
-        <v>1015</v>
+        <v>1016</v>
       </c>
       <c r="B45" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>1197</v>
+        <v>1198</v>
       </c>
       <c r="E45" s="12"/>
       <c r="F45" s="12"/>
@@ -6644,16 +6647,16 @@
     </row>
     <row r="46" spans="1:8" ht="26">
       <c r="A46" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B46" s="10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E46" s="12"/>
       <c r="F46" s="12"/>
@@ -6662,16 +6665,16 @@
     </row>
     <row r="47" spans="1:8">
       <c r="A47" s="10" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="B47" s="10" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E47" s="12"/>
       <c r="F47" s="12"/>
@@ -6680,16 +6683,16 @@
     </row>
     <row r="48" spans="1:8">
       <c r="A48" s="10" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B48" s="10" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E48" s="12"/>
       <c r="F48" s="12"/>
@@ -6698,16 +6701,16 @@
     </row>
     <row r="49" spans="1:52">
       <c r="A49" s="10" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E49" s="12"/>
       <c r="F49" s="12"/>
@@ -6716,16 +6719,16 @@
     </row>
     <row r="50" spans="1:52" ht="52">
       <c r="A50" s="10" t="s">
-        <v>1167</v>
+        <v>1168</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="E50" s="12"/>
       <c r="F50" s="12"/>
@@ -6738,16 +6741,16 @@
     </row>
     <row r="51" spans="1:52" ht="52">
       <c r="A51" s="10" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E51" s="12"/>
       <c r="F51" s="12"/>
@@ -6756,16 +6759,16 @@
     </row>
     <row r="52" spans="1:52" ht="26">
       <c r="A52" s="10" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E52" s="12"/>
       <c r="F52" s="12"/>
@@ -6774,16 +6777,16 @@
     </row>
     <row r="53" spans="1:52" ht="26">
       <c r="A53" s="10" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B53" s="72" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E53" s="12"/>
       <c r="F53" s="12"/>
@@ -6792,16 +6795,16 @@
     </row>
     <row r="54" spans="1:52" ht="26">
       <c r="A54" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E54" s="12"/>
       <c r="F54" s="12"/>
@@ -6810,16 +6813,16 @@
     </row>
     <row r="55" spans="1:52" ht="39">
       <c r="A55" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B55" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E55" s="12"/>
       <c r="F55" s="12"/>
@@ -6828,16 +6831,16 @@
     </row>
     <row r="56" spans="1:52" ht="65">
       <c r="A56" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B56" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E56" s="12"/>
       <c r="F56" s="12"/>
@@ -6846,16 +6849,16 @@
     </row>
     <row r="57" spans="1:52" ht="26">
       <c r="A57" s="10" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B57" s="10" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D57" s="50" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E57" s="12"/>
       <c r="F57" s="12"/>
@@ -6864,16 +6867,16 @@
     </row>
     <row r="58" spans="1:52" ht="26">
       <c r="A58" s="10" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B58" s="50" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C58" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D58" s="50" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E58" s="12"/>
       <c r="F58" s="12"/>
@@ -6882,16 +6885,16 @@
     </row>
     <row r="59" spans="1:52" ht="26">
       <c r="A59" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B59" s="50" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D59" s="50" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E59" s="12"/>
       <c r="F59" s="12"/>
@@ -6900,16 +6903,16 @@
     </row>
     <row r="60" spans="1:52" ht="36" customHeight="1">
       <c r="A60" s="10" t="s">
-        <v>1206</v>
+        <v>1207</v>
       </c>
       <c r="B60" s="50" t="s">
-        <v>1207</v>
+        <v>1208</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D60" s="50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E60" s="12"/>
       <c r="F60" s="12"/>
@@ -6918,16 +6921,16 @@
     </row>
     <row r="61" spans="1:52" ht="36" customHeight="1">
       <c r="A61" s="10" t="s">
-        <v>1205</v>
+        <v>1206</v>
       </c>
       <c r="B61" s="50" t="s">
-        <v>1307</v>
+        <v>1308</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D61" s="50" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E61" s="12"/>
       <c r="F61" s="12"/>
@@ -6936,16 +6939,16 @@
     </row>
     <row r="62" spans="1:52" ht="39">
       <c r="A62" s="72" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B62" s="50" t="s">
+        <v>463</v>
+      </c>
+      <c r="C62" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D62" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>461</v>
       </c>
       <c r="E62" s="12"/>
       <c r="F62" s="12"/>
@@ -6954,16 +6957,16 @@
     </row>
     <row r="63" spans="1:52" ht="52">
       <c r="A63" s="72" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B63" s="50" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C63" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D63" s="50" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="E63" s="12"/>
       <c r="F63" s="12"/>
@@ -6972,16 +6975,16 @@
     </row>
     <row r="64" spans="1:52" ht="52">
       <c r="A64" s="72" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B64" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="D64" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="C64" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="D64" s="7" t="s">
-        <v>308</v>
       </c>
       <c r="E64" s="12"/>
       <c r="F64" s="12"/>
@@ -6990,16 +6993,16 @@
     </row>
     <row r="65" spans="1:8" ht="26">
       <c r="A65" s="10" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C65" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D65" s="10" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E65" s="12"/>
       <c r="F65" s="12"/>
@@ -7008,56 +7011,56 @@
     </row>
     <row r="66" spans="1:8" ht="26">
       <c r="A66" s="10" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C66" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>1198</v>
+        <v>1199</v>
       </c>
       <c r="E66" s="12"/>
       <c r="F66" s="12"/>
       <c r="G66" s="12"/>
       <c r="H66" s="12" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="26">
       <c r="A67" s="71" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B67" s="10" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="C67" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="E67" s="12"/>
       <c r="F67" s="12"/>
       <c r="G67" s="12"/>
       <c r="H67" s="12" t="s">
-        <v>1012</v>
+        <v>1013</v>
       </c>
     </row>
     <row r="68" spans="1:8">
       <c r="A68" s="10" t="s">
-        <v>923</v>
+        <v>924</v>
       </c>
       <c r="B68" s="10" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D68" s="10" t="s">
-        <v>808</v>
+        <v>809</v>
       </c>
       <c r="E68" s="12"/>
       <c r="F68" s="12"/>
@@ -7066,16 +7069,16 @@
     </row>
     <row r="69" spans="1:8">
       <c r="A69" s="72" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B69" s="10" t="s">
-        <v>1052</v>
+        <v>1053</v>
       </c>
       <c r="C69" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D69" s="10" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="E69" s="12"/>
       <c r="F69" s="12"/>
@@ -7084,16 +7087,16 @@
     </row>
     <row r="70" spans="1:8">
       <c r="A70" s="10" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B70" s="10" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C70" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D70" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E70" s="12"/>
       <c r="F70" s="12"/>
@@ -7102,16 +7105,16 @@
     </row>
     <row r="71" spans="1:8" ht="26">
       <c r="A71" s="10" t="s">
-        <v>895</v>
+        <v>896</v>
       </c>
       <c r="B71" s="10" t="s">
+        <v>1137</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="D71" s="7" t="s">
         <v>1136</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="D71" s="7" t="s">
-        <v>1135</v>
       </c>
       <c r="E71" s="12"/>
       <c r="F71" s="12"/>
@@ -7120,16 +7123,16 @@
     </row>
     <row r="72" spans="1:8" ht="26">
       <c r="A72" s="10" t="s">
+        <v>1152</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>1150</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="D72" s="7" t="s">
         <v>1151</v>
-      </c>
-      <c r="B72" s="10" t="s">
-        <v>1149</v>
-      </c>
-      <c r="C72" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="D72" s="7" t="s">
-        <v>1150</v>
       </c>
       <c r="E72" s="12"/>
       <c r="F72" s="12"/>
@@ -7138,16 +7141,16 @@
     </row>
     <row r="73" spans="1:8">
       <c r="A73" s="10" t="s">
-        <v>985</v>
+        <v>986</v>
       </c>
       <c r="B73" s="10" t="s">
-        <v>1007</v>
+        <v>1008</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D73" s="7" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
       <c r="E73" s="12"/>
       <c r="F73" s="12"/>
@@ -7156,16 +7159,16 @@
     </row>
     <row r="74" spans="1:8" ht="12" customHeight="1">
       <c r="A74" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B74" s="10" t="s">
+        <v>1216</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="D74" s="10" t="s">
         <v>1215</v>
-      </c>
-      <c r="C74" s="10" t="s">
-        <v>752</v>
-      </c>
-      <c r="D74" s="10" t="s">
-        <v>1214</v>
       </c>
       <c r="E74" s="12"/>
       <c r="F74" s="12"/>
@@ -7174,16 +7177,16 @@
     </row>
     <row r="75" spans="1:8" ht="26">
       <c r="A75" s="10" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="B75" s="10" t="s">
-        <v>842</v>
+        <v>843</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D75" s="10" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="E75" s="12"/>
       <c r="F75" s="12"/>
@@ -7192,16 +7195,16 @@
     </row>
     <row r="76" spans="1:8">
       <c r="A76" s="10" t="s">
-        <v>897</v>
+        <v>898</v>
       </c>
       <c r="B76" s="10" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D76" s="10" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="E76" s="12"/>
       <c r="F76" s="12"/>
@@ -7210,16 +7213,16 @@
     </row>
     <row r="77" spans="1:8" ht="26">
       <c r="A77" s="10" t="s">
-        <v>823</v>
+        <v>824</v>
       </c>
       <c r="B77" s="10" t="s">
-        <v>1225</v>
+        <v>1226</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D77" s="10" t="s">
-        <v>1226</v>
+        <v>1227</v>
       </c>
       <c r="E77" s="12"/>
       <c r="F77" s="12"/>
@@ -7228,16 +7231,16 @@
     </row>
     <row r="78" spans="1:8" ht="41" customHeight="1">
       <c r="A78" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B78" s="10" t="s">
-        <v>1227</v>
+        <v>1228</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D78" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="E78" s="12"/>
       <c r="F78" s="12"/>
@@ -7246,16 +7249,16 @@
     </row>
     <row r="79" spans="1:8" ht="26">
       <c r="A79" s="10" t="s">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="B79" s="10" t="s">
+        <v>1134</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="D79" s="10" t="s">
         <v>1133</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>752</v>
-      </c>
-      <c r="D79" s="10" t="s">
-        <v>1132</v>
       </c>
       <c r="E79" s="12"/>
       <c r="F79" s="12"/>
@@ -7264,16 +7267,16 @@
     </row>
     <row r="80" spans="1:8" ht="26">
       <c r="A80" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B80" s="10" t="s">
-        <v>1134</v>
+        <v>1135</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D80" s="10" t="s">
-        <v>1278</v>
+        <v>1279</v>
       </c>
       <c r="E80" s="12"/>
       <c r="F80" s="12"/>
@@ -7282,16 +7285,16 @@
     </row>
     <row r="81" spans="1:8">
       <c r="A81" s="10" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="B81" s="10" t="s">
-        <v>830</v>
+        <v>831</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D81" s="10" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="E81" s="12"/>
       <c r="F81" s="12"/>
@@ -7300,16 +7303,16 @@
     </row>
     <row r="82" spans="1:8" ht="26">
       <c r="A82" s="10" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B82" s="10" t="s">
-        <v>1175</v>
+        <v>1176</v>
       </c>
       <c r="C82" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D82" s="10" t="s">
-        <v>1279</v>
+        <v>1280</v>
       </c>
       <c r="E82" s="12"/>
       <c r="F82" s="12"/>
@@ -7318,16 +7321,16 @@
     </row>
     <row r="83" spans="1:8" ht="26">
       <c r="A83" s="10" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B83" s="10" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D83" s="10" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="E83" s="12"/>
       <c r="F83" s="12"/>
@@ -7336,16 +7339,16 @@
     </row>
     <row r="84" spans="1:8" ht="26">
       <c r="A84" s="10" t="s">
-        <v>989</v>
+        <v>990</v>
       </c>
       <c r="B84" s="10" t="s">
-        <v>908</v>
+        <v>909</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D84" s="10" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="E84" s="12"/>
       <c r="F84" s="12"/>
@@ -7354,16 +7357,16 @@
     </row>
     <row r="85" spans="1:8">
       <c r="A85" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="B85" s="10" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D85" s="10" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="E85" s="12"/>
       <c r="F85" s="12"/>
@@ -7372,16 +7375,16 @@
     </row>
     <row r="86" spans="1:8">
       <c r="A86" s="10" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B86" s="10" t="s">
-        <v>1035</v>
+        <v>1036</v>
       </c>
       <c r="C86" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D86" s="10" t="s">
-        <v>1274</v>
+        <v>1275</v>
       </c>
       <c r="E86" s="12"/>
       <c r="F86" s="12"/>
@@ -7390,16 +7393,16 @@
     </row>
     <row r="87" spans="1:8">
       <c r="A87" s="10" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="B87" s="10" t="s">
-        <v>1085</v>
+        <v>1086</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D87" s="10" t="s">
-        <v>1176</v>
+        <v>1177</v>
       </c>
       <c r="E87" s="12"/>
       <c r="F87" s="12"/>
@@ -7408,16 +7411,16 @@
     </row>
     <row r="88" spans="1:8" ht="26">
       <c r="A88" s="10" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B88" s="10" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C88" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D88" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="E88" s="12"/>
       <c r="F88" s="12"/>
@@ -7426,16 +7429,16 @@
     </row>
     <row r="89" spans="1:8" ht="26">
       <c r="A89" s="10" t="s">
-        <v>1089</v>
+        <v>1090</v>
       </c>
       <c r="B89" s="10" t="s">
-        <v>1000</v>
+        <v>1001</v>
       </c>
       <c r="C89" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D89" s="7" t="s">
-        <v>1001</v>
+        <v>1002</v>
       </c>
       <c r="E89" s="12"/>
       <c r="F89" s="12"/>
@@ -7444,16 +7447,16 @@
     </row>
     <row r="90" spans="1:8" ht="39">
       <c r="A90" s="10" t="s">
-        <v>866</v>
+        <v>867</v>
       </c>
       <c r="B90" s="10" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C90" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D90" s="10" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="E90" s="12"/>
       <c r="F90" s="12"/>
@@ -7462,16 +7465,16 @@
     </row>
     <row r="91" spans="1:8" ht="26">
       <c r="A91" s="10" t="s">
-        <v>1003</v>
+        <v>1004</v>
       </c>
       <c r="B91" s="7" t="s">
-        <v>1217</v>
+        <v>1218</v>
       </c>
       <c r="C91" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D91" s="10" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E91" s="12"/>
       <c r="F91" s="12"/>
@@ -7480,16 +7483,16 @@
     </row>
     <row r="92" spans="1:8" ht="26">
       <c r="A92" s="10" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="B92" s="7" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C92" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D92" s="10" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="E92" s="12"/>
       <c r="F92" s="12"/>
@@ -7498,16 +7501,16 @@
     </row>
     <row r="93" spans="1:8" ht="26">
       <c r="A93" s="10" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
       <c r="B93" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>753</v>
+      </c>
+      <c r="D93" s="7" t="s">
         <v>1079</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>752</v>
-      </c>
-      <c r="D93" s="7" t="s">
-        <v>1078</v>
       </c>
       <c r="E93" s="12"/>
       <c r="F93" s="12"/>
@@ -7516,16 +7519,16 @@
     </row>
     <row r="94" spans="1:8" ht="26">
       <c r="A94" s="10" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B94" s="7" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="D94" s="7" t="s">
         <v>1056</v>
-      </c>
-      <c r="B94" s="7" t="s">
-        <v>1155</v>
-      </c>
-      <c r="C94" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="D94" s="7" t="s">
-        <v>1055</v>
       </c>
       <c r="E94" s="12"/>
       <c r="F94" s="12"/>
@@ -7534,16 +7537,16 @@
     </row>
     <row r="95" spans="1:8" ht="26">
       <c r="A95" s="10" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B95" s="7" t="s">
         <v>1059</v>
       </c>
-      <c r="B95" s="7" t="s">
+      <c r="C95" s="10" t="s">
+        <v>516</v>
+      </c>
+      <c r="D95" s="7" t="s">
         <v>1058</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="D95" s="7" t="s">
-        <v>1057</v>
       </c>
       <c r="E95" s="12"/>
       <c r="F95" s="12"/>
@@ -7552,16 +7555,16 @@
     </row>
     <row r="96" spans="1:8" ht="26">
       <c r="A96" s="10" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="B96" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C96" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D96" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="E96" s="12"/>
       <c r="F96" s="12"/>
@@ -7570,16 +7573,16 @@
     </row>
     <row r="97" spans="1:8" ht="26">
       <c r="A97" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B97" s="10" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C97" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D97" s="10" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E97" s="12"/>
       <c r="F97" s="12"/>
@@ -7588,16 +7591,16 @@
     </row>
     <row r="98" spans="1:8">
       <c r="A98" s="10" t="s">
-        <v>792</v>
+        <v>793</v>
       </c>
       <c r="B98" s="10" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="C98" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D98" s="10" t="s">
-        <v>837</v>
+        <v>838</v>
       </c>
       <c r="E98" s="12"/>
       <c r="F98" s="12"/>
@@ -7606,16 +7609,16 @@
     </row>
     <row r="99" spans="1:8">
       <c r="A99" s="10" t="s">
-        <v>793</v>
+        <v>794</v>
       </c>
       <c r="B99" s="10" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C99" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D99" s="10" t="s">
-        <v>838</v>
+        <v>839</v>
       </c>
       <c r="E99" s="12"/>
       <c r="F99" s="12"/>
@@ -7624,16 +7627,16 @@
     </row>
     <row r="100" spans="1:8">
       <c r="A100" s="10" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B100" s="10" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C100" s="10" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D100" s="10" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="E100" s="12"/>
       <c r="F100" s="12"/>
@@ -7642,16 +7645,16 @@
     </row>
     <row r="101" spans="1:8">
       <c r="A101" s="10" t="s">
-        <v>827</v>
+        <v>828</v>
       </c>
       <c r="B101" s="10" t="s">
-        <v>1095</v>
+        <v>1096</v>
       </c>
       <c r="C101" s="10" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="E101" s="12"/>
       <c r="F101" s="12"/>
@@ -7660,16 +7663,16 @@
     </row>
     <row r="102" spans="1:8">
       <c r="A102" s="10" t="s">
-        <v>868</v>
+        <v>869</v>
       </c>
       <c r="B102" s="10" t="s">
-        <v>869</v>
+        <v>870</v>
       </c>
       <c r="C102" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D102" s="10" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="E102" s="12"/>
       <c r="F102" s="12"/>
@@ -7678,16 +7681,16 @@
     </row>
     <row r="103" spans="1:8">
       <c r="A103" s="10" t="s">
-        <v>899</v>
+        <v>900</v>
       </c>
       <c r="B103" s="10" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C103" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D103" s="10" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="E103" s="12"/>
       <c r="F103" s="12"/>
@@ -7696,16 +7699,16 @@
     </row>
     <row r="104" spans="1:8">
       <c r="A104" s="10" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="B104" s="10" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C104" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D104" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E104" s="12"/>
       <c r="F104" s="12"/>
@@ -7714,16 +7717,16 @@
     </row>
     <row r="105" spans="1:8" ht="26">
       <c r="A105" s="10" t="s">
+        <v>890</v>
+      </c>
+      <c r="B105" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="D105" s="10" t="s">
         <v>889</v>
-      </c>
-      <c r="B105" s="7" t="s">
-        <v>1091</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="D105" s="10" t="s">
-        <v>888</v>
       </c>
       <c r="E105" s="12"/>
       <c r="F105" s="12"/>
@@ -7732,16 +7735,16 @@
     </row>
     <row r="106" spans="1:8">
       <c r="A106" s="10" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="B106" s="7" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="C106" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D106" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="E106" s="12"/>
       <c r="F106" s="12"/>
@@ -7750,16 +7753,16 @@
     </row>
     <row r="107" spans="1:8">
       <c r="A107" s="10" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="B107" s="7" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
       <c r="C107" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D107" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="E107" s="12"/>
       <c r="F107" s="12"/>
@@ -7768,16 +7771,16 @@
     </row>
     <row r="108" spans="1:8">
       <c r="A108" s="10" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B108" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C108" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D108" s="10" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="E108" s="12"/>
       <c r="F108" s="12"/>
@@ -7786,16 +7789,16 @@
     </row>
     <row r="109" spans="1:8">
       <c r="A109" s="10" t="s">
-        <v>1084</v>
+        <v>1085</v>
       </c>
       <c r="B109" s="7" t="s">
-        <v>1004</v>
+        <v>1005</v>
       </c>
       <c r="C109" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D109" s="10" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="E109" s="12"/>
       <c r="F109" s="12"/>
@@ -7804,16 +7807,16 @@
     </row>
     <row r="110" spans="1:8">
       <c r="A110" s="10" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="B110" s="10" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="C110" s="10" t="s">
-        <v>1275</v>
+        <v>1276</v>
       </c>
       <c r="D110" s="10" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E110" s="12"/>
       <c r="F110" s="12"/>
@@ -7822,16 +7825,16 @@
     </row>
     <row r="111" spans="1:8">
       <c r="A111" s="10" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="B111" s="10" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="C111" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D111" s="10" t="s">
-        <v>1298</v>
+        <v>1299</v>
       </c>
       <c r="E111" s="12"/>
       <c r="F111" s="12"/>
@@ -7840,16 +7843,16 @@
     </row>
     <row r="112" spans="1:8">
       <c r="A112" s="10" t="s">
-        <v>843</v>
+        <v>844</v>
       </c>
       <c r="B112" s="10" t="s">
-        <v>883</v>
+        <v>884</v>
       </c>
       <c r="C112" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D112" s="10" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E112" s="12"/>
       <c r="F112" s="12"/>
@@ -7858,16 +7861,16 @@
     </row>
     <row r="113" spans="1:8">
       <c r="A113" s="10" t="s">
-        <v>834</v>
+        <v>835</v>
       </c>
       <c r="B113" s="10" t="s">
-        <v>859</v>
+        <v>860</v>
       </c>
       <c r="C113" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D113" s="7" t="s">
-        <v>1297</v>
+        <v>1298</v>
       </c>
       <c r="E113" s="12"/>
       <c r="F113" s="12"/>
@@ -7876,16 +7879,16 @@
     </row>
     <row r="114" spans="1:8">
       <c r="A114" s="10" t="s">
-        <v>1276</v>
+        <v>1277</v>
       </c>
       <c r="B114" s="10" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="C114" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D114" s="10" t="s">
-        <v>857</v>
+        <v>858</v>
       </c>
       <c r="E114" s="12"/>
       <c r="F114" s="12"/>
@@ -7894,16 +7897,16 @@
     </row>
     <row r="115" spans="1:8">
       <c r="A115" s="10" t="s">
-        <v>1026</v>
+        <v>1027</v>
       </c>
       <c r="B115" s="10" t="s">
-        <v>925</v>
+        <v>926</v>
       </c>
       <c r="C115" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D115" s="10" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="F115" s="12"/>
       <c r="G115" s="12"/>
@@ -7911,16 +7914,16 @@
     </row>
     <row r="116" spans="1:8">
       <c r="A116" s="10" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B116" s="10" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="C116" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D116" s="10" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="E116" s="7"/>
       <c r="F116" s="12"/>
@@ -7929,16 +7932,16 @@
     </row>
     <row r="117" spans="1:8">
       <c r="A117" s="10" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B117" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>601</v>
+      </c>
+      <c r="D117" s="10" t="s">
         <v>354</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>600</v>
-      </c>
-      <c r="D117" s="10" t="s">
-        <v>353</v>
       </c>
       <c r="E117" s="12"/>
       <c r="F117" s="12"/>
@@ -7950,13 +7953,13 @@
         <v>0</v>
       </c>
       <c r="B118" s="7" t="s">
-        <v>1107</v>
+        <v>1108</v>
       </c>
       <c r="C118" s="10" t="s">
-        <v>1108</v>
+        <v>1109</v>
       </c>
       <c r="D118" s="7" t="s">
-        <v>1199</v>
+        <v>1200</v>
       </c>
       <c r="E118" s="12"/>
       <c r="F118" s="12"/>
@@ -7974,125 +7977,125 @@
     <row r="120" spans="1:8">
       <c r="A120" s="10"/>
       <c r="B120" s="13" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C120" s="13" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E120" s="14" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F120" s="18" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G120" s="18" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H120" s="19"/>
     </row>
     <row r="121" spans="1:8" ht="39">
       <c r="A121" s="10"/>
       <c r="B121" s="10" t="s">
-        <v>1245</v>
+        <v>1246</v>
       </c>
       <c r="C121" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D121" s="10" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="E121" s="12"/>
       <c r="F121" s="12"/>
       <c r="G121" s="12" t="s">
-        <v>913</v>
+        <v>914</v>
       </c>
       <c r="H121" s="26"/>
     </row>
     <row r="122" spans="1:8" ht="26">
       <c r="A122" s="10"/>
       <c r="B122" s="10" t="s">
-        <v>1014</v>
+        <v>1015</v>
       </c>
       <c r="C122" s="10" t="s">
-        <v>1161</v>
+        <v>1162</v>
       </c>
       <c r="D122" s="10" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="E122" s="12"/>
       <c r="F122" s="12"/>
       <c r="G122" s="12" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="H122" s="26"/>
     </row>
     <row r="123" spans="1:8" ht="36" customHeight="1">
       <c r="A123" s="10"/>
       <c r="B123" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C123" s="10" t="s">
-        <v>1281</v>
+        <v>1282</v>
       </c>
       <c r="D123" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E123" s="12"/>
       <c r="F123" s="12"/>
       <c r="G123" s="12"/>
       <c r="H123" s="26" t="s">
-        <v>1140</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="63" customHeight="1">
       <c r="A124" s="10"/>
       <c r="B124" s="10" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C124" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D124" s="10" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="E124" s="12"/>
       <c r="F124" s="12"/>
       <c r="G124" s="12"/>
       <c r="H124" s="26" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="125" spans="1:8" ht="52">
       <c r="A125" s="10"/>
       <c r="B125" s="10" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C125" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D125" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E125" s="12"/>
       <c r="F125" s="12"/>
       <c r="G125" s="12"/>
       <c r="H125" s="19" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="126" spans="1:8" ht="26">
       <c r="A126" s="10"/>
       <c r="B126" s="10" t="s">
-        <v>1251</v>
+        <v>1252</v>
       </c>
       <c r="C126" s="10" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D126" s="10" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="E126" s="12"/>
       <c r="F126" s="12"/>
@@ -8102,33 +8105,33 @@
     <row r="127" spans="1:8" ht="39">
       <c r="A127" s="10"/>
       <c r="B127" s="10" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="C127" s="10" t="s">
-        <v>1168</v>
+        <v>1169</v>
       </c>
       <c r="D127" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="E127" s="12"/>
       <c r="F127" s="12"/>
       <c r="G127" s="12" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="H127" s="17" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="128" spans="1:8" ht="26">
       <c r="A128" s="10"/>
       <c r="B128" s="10" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C128" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D128" s="10" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="E128" s="12"/>
       <c r="F128" s="12"/>
@@ -8138,105 +8141,105 @@
     <row r="129" spans="1:9" ht="39">
       <c r="A129" s="10"/>
       <c r="B129" s="10" t="s">
-        <v>1162</v>
+        <v>1163</v>
       </c>
       <c r="C129" s="10" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D129" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E129" s="12"/>
       <c r="F129" s="12"/>
       <c r="G129" s="12" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="H129" s="17" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="130" spans="1:9" ht="26">
       <c r="A130" s="10"/>
       <c r="B130" s="10" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C130" s="10" t="s">
-        <v>861</v>
+        <v>862</v>
       </c>
       <c r="D130" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E130" s="12"/>
       <c r="F130" s="12"/>
       <c r="H130" s="12" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="131" spans="1:9" ht="52">
       <c r="A131" s="20"/>
       <c r="B131" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C131" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D131" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E131" s="12"/>
       <c r="F131" s="12"/>
       <c r="H131" s="12" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="132" spans="1:9" ht="39">
       <c r="A132" s="10"/>
       <c r="B132" s="10" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C132" s="10" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="D132" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E132" s="12"/>
       <c r="F132" s="12"/>
       <c r="G132" s="12"/>
       <c r="H132" s="17" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="133" spans="1:9" ht="52">
       <c r="A133" s="10"/>
       <c r="B133" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C133" s="10" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D133" s="10" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E133" s="12"/>
       <c r="F133" s="12"/>
       <c r="G133" s="12" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="H133" s="21" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="134" spans="1:9" ht="26">
       <c r="A134" s="10"/>
       <c r="B134" s="10" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C134" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D134" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E134" s="12"/>
       <c r="F134" s="12"/>
@@ -8246,13 +8249,13 @@
     <row r="135" spans="1:9" ht="52">
       <c r="A135" s="10"/>
       <c r="B135" s="10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C135" s="10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D135" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E135" s="12"/>
       <c r="F135" s="12"/>
@@ -8262,13 +8265,13 @@
     <row r="136" spans="1:9" ht="65">
       <c r="A136" s="10"/>
       <c r="B136" s="10" t="s">
-        <v>1253</v>
+        <v>1254</v>
       </c>
       <c r="C136" s="10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="E136" s="12"/>
       <c r="F136" s="12"/>
@@ -8278,13 +8281,13 @@
     <row r="137" spans="1:9" ht="26">
       <c r="A137" s="10"/>
       <c r="B137" s="10" t="s">
-        <v>1302</v>
+        <v>1303</v>
       </c>
       <c r="C137" s="69" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D137" s="21" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E137" s="12"/>
       <c r="F137" s="12"/>
@@ -8294,13 +8297,13 @@
     <row r="138" spans="1:9" ht="26">
       <c r="A138" s="10"/>
       <c r="B138" s="7" t="s">
-        <v>1204</v>
+        <v>1205</v>
       </c>
       <c r="C138" s="37" t="s">
-        <v>1303</v>
+        <v>1304</v>
       </c>
       <c r="D138" s="10" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E138" s="12"/>
       <c r="F138" s="12"/>
@@ -8310,32 +8313,32 @@
     <row r="139" spans="1:9" ht="39">
       <c r="A139" s="10"/>
       <c r="B139" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C139" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D139" s="10" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E139" s="12"/>
       <c r="F139" s="12"/>
       <c r="G139" s="12"/>
       <c r="H139" s="26"/>
       <c r="I139" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
     </row>
     <row r="140" spans="1:9" ht="26">
       <c r="A140" s="10"/>
       <c r="B140" s="10" t="s">
-        <v>1177</v>
+        <v>1178</v>
       </c>
       <c r="C140" s="10" t="s">
-        <v>1017</v>
+        <v>1018</v>
       </c>
       <c r="D140" s="10" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="E140" s="12"/>
       <c r="F140" s="12"/>
@@ -8345,30 +8348,30 @@
     <row r="141" spans="1:9" ht="78">
       <c r="A141" s="10"/>
       <c r="B141" s="10" t="s">
-        <v>1141</v>
+        <v>1142</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D141" s="10" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="E141" s="12"/>
       <c r="F141" s="12"/>
       <c r="G141" s="10" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H141" s="10" t="s">
-        <v>1060</v>
+        <v>1061</v>
       </c>
     </row>
     <row r="142" spans="1:9" ht="26">
       <c r="A142" s="10"/>
       <c r="B142" s="13" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C142" s="13" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D142" s="10"/>
       <c r="E142" s="23"/>
@@ -8379,10 +8382,10 @@
     <row r="143" spans="1:9" ht="26">
       <c r="A143" s="10"/>
       <c r="B143" s="10" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C143" s="10" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="D143" s="10"/>
       <c r="E143" s="12"/>
@@ -8397,44 +8400,44 @@
         <v>IkbK</v>
       </c>
       <c r="C144" s="10" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="D144" s="10"/>
       <c r="E144" s="12"/>
       <c r="F144" s="12"/>
       <c r="G144" s="12" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="H144" s="12"/>
     </row>
     <row r="145" spans="1:9" ht="52">
       <c r="A145" s="10"/>
       <c r="B145" s="37" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C145" s="37" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D145" s="10"/>
       <c r="E145" s="12"/>
       <c r="F145" s="12"/>
       <c r="G145" s="26" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="H145" s="37" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I145" s="37" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="1:9">
       <c r="A146" s="10"/>
       <c r="B146" s="10" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="C146" s="10" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D146" s="10"/>
       <c r="E146" s="12"/>
@@ -8449,23 +8452,23 @@
         <v>Ubc13-Uev1A</v>
       </c>
       <c r="C147" s="10" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="D147" s="10"/>
       <c r="E147" s="12"/>
       <c r="F147" s="12"/>
       <c r="G147" s="12" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="H147" s="12"/>
     </row>
     <row r="148" spans="1:9" ht="39">
       <c r="A148" s="10"/>
       <c r="B148" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C148" s="10" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="D148" s="10"/>
       <c r="E148" s="12"/>
@@ -8495,7 +8498,7 @@
     </row>
     <row r="151" spans="1:9">
       <c r="A151" s="13" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B151" s="10"/>
       <c r="C151" s="10"/>
@@ -8508,16 +8511,16 @@
     <row r="152" spans="1:9" s="1" customFormat="1">
       <c r="A152" s="10"/>
       <c r="B152" s="13" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C152" s="13" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D152" s="13" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E152" s="14" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F152" s="18"/>
       <c r="G152" s="18"/>
@@ -8529,13 +8532,13 @@
         <v>rlps2-tm+IRK4-&gt;rlps-tmIRK4</v>
       </c>
       <c r="B153" s="10" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C153" s="10" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D153" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E153" s="12"/>
       <c r="F153" s="12"/>
@@ -8548,18 +8551,18 @@
         <v>rlps-tmIRK4IRK1-&gt;rlps-tmIRK4IRK1p</v>
       </c>
       <c r="B154" s="10" t="s">
-        <v>811</v>
+        <v>812</v>
       </c>
       <c r="C154" s="10" t="s">
-        <v>812</v>
+        <v>813</v>
       </c>
       <c r="D154" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E154" s="12"/>
       <c r="F154" s="12"/>
       <c r="G154" s="25" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="H154" s="12"/>
     </row>
@@ -8569,13 +8572,13 @@
         <v xml:space="preserve">rlps-tmIRK4IRK1p-&gt;rlps-tmIRK4IRK1pp </v>
       </c>
       <c r="B155" s="10" t="s">
-        <v>933</v>
+        <v>934</v>
       </c>
       <c r="C155" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D155" s="10" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="E155" s="12"/>
       <c r="F155" s="12"/>
@@ -8588,13 +8591,13 @@
         <v>rlps-tmIRK4IRK1pp+tf6-&gt; rlps-tmIRK4IRK1pptf6</v>
       </c>
       <c r="B156" s="10" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C156" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D156" s="10" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E156" s="12"/>
       <c r="F156" s="12"/>
@@ -8607,13 +8610,13 @@
         <v>IRK1pptf6+pel-&gt; IRK1pptf6pel</v>
       </c>
       <c r="B157" s="10" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C157" s="10" t="s">
-        <v>931</v>
+        <v>932</v>
       </c>
       <c r="D157" s="10" t="s">
-        <v>1105</v>
+        <v>1106</v>
       </c>
       <c r="E157" s="12"/>
       <c r="F157" s="12"/>
@@ -8626,13 +8629,13 @@
         <v>IRK1pptf6pelTI + Ubc13-Uev1A+ub-&gt; IRK1pptf6k63ubpelTI</v>
       </c>
       <c r="B158" s="10" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C158" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D158" s="10" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E158" s="12"/>
       <c r="F158" s="12"/>
@@ -8645,13 +8648,13 @@
         <v>IRK1pptf6k63ubpelTI+ub-&gt; IRK1pptf6pubpel+TIFA</v>
       </c>
       <c r="B159" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="C159" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D159" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E159" s="12"/>
       <c r="F159" s="12"/>
@@ -8664,13 +8667,13 @@
         <v>IRK1pptf6pubpel-&gt; IRK1pptf6pubpelp</v>
       </c>
       <c r="B160" s="10" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C160" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D160" s="10" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="E160" s="12"/>
       <c r="F160" s="12"/>
@@ -8683,13 +8686,13 @@
         <v>IRK1pptf6pubpelp-&gt; IRK1ubpptf6pubpelp</v>
       </c>
       <c r="B161" s="10" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D161" s="10" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="E161" s="12"/>
       <c r="F161" s="12"/>
@@ -8702,13 +8705,13 @@
         <v>IRK1pptf6pubpelp+tak1tab1tab2tab3-&gt; IRK1pptf6pubpelptak1tab1tab2tab3</v>
       </c>
       <c r="B162" s="10" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C162" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D162" s="10" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="E162" s="12"/>
       <c r="F162" s="12"/>
@@ -8721,13 +8724,13 @@
         <v>IRK1ubpptf6pubpelp+IKbK-&gt; IRK1ubpptf6pubpelpIKbK</v>
       </c>
       <c r="B163" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C163" s="10" t="s">
+        <v>768</v>
+      </c>
+      <c r="D163" s="10" t="s">
         <v>767</v>
-      </c>
-      <c r="D163" s="10" t="s">
-        <v>766</v>
       </c>
       <c r="E163" s="12"/>
       <c r="F163" s="12"/>
@@ -8740,13 +8743,13 @@
         <v>IRK1pptf6pubpelptak1tab1tab2tab3  +IRK1ubpptf6pubpelpIKbK-&gt; IRK1ubpptf6pubpelpIKbKp</v>
       </c>
       <c r="B164" s="10" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C164" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D164" s="10" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="E164" s="12"/>
       <c r="F164" s="12"/>
@@ -8759,13 +8762,13 @@
         <v>IRK1ubpptf6pubpelpIKbKp + IKBsNfkb-&gt; IKBspNfkb</v>
       </c>
       <c r="B165" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C165" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D165" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="166" spans="1:8" ht="39">
@@ -8774,11 +8777,11 @@
         <v>IKBspNfkb+ub-&gt;IKBspK48ubNfkb</v>
       </c>
       <c r="B166" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C166" s="10"/>
       <c r="D166" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="52">
@@ -8787,11 +8790,11 @@
         <v xml:space="preserve">IKBspK48ubNfkb-&gt; IKBspK48ub+Nfkb </v>
       </c>
       <c r="B167" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C167" s="10"/>
       <c r="D167" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="52">
@@ -8800,11 +8803,11 @@
         <v xml:space="preserve">IKBspK48ub-&gt;0 </v>
       </c>
       <c r="B168" s="10" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C168" s="10"/>
       <c r="D168" s="10" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="169" spans="1:8" ht="39">
@@ -8813,11 +8816,11 @@
         <v>NFKB+IMPalpha4-&gt; NfkbIMPalpha4</v>
       </c>
       <c r="B169" s="10" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C169" s="10"/>
       <c r="D169" s="10" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
     </row>
   </sheetData>
@@ -8847,18 +8850,18 @@
   <sheetData>
     <row r="1" spans="1:2" ht="26">
       <c r="A1" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="26">
       <c r="A2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>947</v>
+        <v>948</v>
       </c>
     </row>
   </sheetData>
@@ -8893,606 +8896,606 @@
   <sheetData>
     <row r="1" spans="1:15" ht="39">
       <c r="A1" s="7" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>839</v>
+        <v>840</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>785</v>
+        <v>786</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>786</v>
+        <v>787</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="H1" s="7" t="s">
+        <v>751</v>
+      </c>
+      <c r="I1" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="I1" s="7" t="s">
-        <v>749</v>
-      </c>
       <c r="J1" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="K1" s="7" t="s">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="L1" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="M1" s="7" t="s">
-        <v>1100</v>
+        <v>1101</v>
       </c>
       <c r="N1" s="7" t="s">
-        <v>919</v>
+        <v>920</v>
       </c>
       <c r="O1" s="7" t="s">
-        <v>999</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="409">
       <c r="A2" s="7" t="s">
-        <v>864</v>
+        <v>865</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="H2" s="7" t="s">
-        <v>1030</v>
+        <v>1031</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>1031</v>
+        <v>1032</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>799</v>
+        <v>800</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>907</v>
+        <v>908</v>
       </c>
       <c r="N2" s="7" t="s">
-        <v>928</v>
+        <v>929</v>
       </c>
       <c r="O2" s="7" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
     </row>
     <row r="3" spans="1:15" ht="221">
       <c r="A3" s="7" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I3" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="J3" s="7" t="s">
-        <v>1002</v>
+        <v>1003</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>1076</v>
+        <v>1077</v>
       </c>
       <c r="L3" s="7" t="s">
-        <v>924</v>
+        <v>925</v>
       </c>
       <c r="M3" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="N3" s="7" t="s">
         <v>678</v>
       </c>
-      <c r="N3" s="7" t="s">
-        <v>677</v>
-      </c>
       <c r="O3" s="7" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:15" ht="107" customHeight="1">
       <c r="A4" s="7" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>996</v>
+        <v>997</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="H4" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="I4" s="7" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="5" spans="1:15" ht="329" customHeight="1">
       <c r="A5" s="7" t="s">
-        <v>851</v>
+        <v>852</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>1126</v>
+        <v>1127</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>874</v>
+        <v>875</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="H5" s="7" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="I5" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="K5" s="9" t="s">
-        <v>1092</v>
+        <v>1093</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="6" spans="1:15" ht="329" customHeight="1">
       <c r="A6" s="7" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>832</v>
+        <v>833</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>860</v>
+        <v>861</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="G6" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="H6" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="I6" s="7" t="s">
         <v>309</v>
-      </c>
-      <c r="H6" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="65">
       <c r="A7" s="7" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>893</v>
+        <v>894</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="H7" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="H7" s="7" t="s">
-        <v>303</v>
-      </c>
       <c r="I7" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:15" ht="208">
       <c r="A8" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="G8" s="7" t="s">
+        <v>463</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="I8" s="7" t="s">
         <v>462</v>
-      </c>
-      <c r="H8" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="I8" s="7" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="91">
       <c r="A9" s="7" t="s">
-        <v>833</v>
+        <v>834</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>865</v>
+        <v>866</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>867</v>
+        <v>868</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
     </row>
     <row r="10" spans="1:15" ht="104">
       <c r="A10" s="7" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>835</v>
+        <v>836</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
     </row>
     <row r="11" spans="1:15" ht="195">
       <c r="A11" s="7" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>831</v>
+        <v>832</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>987</v>
+        <v>988</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>1032</v>
+        <v>1033</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>887</v>
+        <v>888</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>888</v>
+        <v>889</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="169">
       <c r="A12" s="7" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>892</v>
+        <v>893</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>852</v>
+        <v>853</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="91">
       <c r="A13" s="7" t="s">
-        <v>872</v>
+        <v>873</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>850</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>849</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>1008</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>848</v>
       </c>
     </row>
     <row r="14" spans="1:15" ht="91">
       <c r="E14" s="7" t="s">
-        <v>910</v>
+        <v>911</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>911</v>
+        <v>912</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="221">
       <c r="A15" s="7" t="s">
-        <v>982</v>
+        <v>983</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>921</v>
+        <v>922</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>983</v>
+        <v>984</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>927</v>
+        <v>928</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>896</v>
+        <v>897</v>
       </c>
     </row>
     <row r="16" spans="1:15" ht="78">
       <c r="A16" s="7" t="s">
+        <v>1145</v>
+      </c>
+      <c r="B16" s="7" t="s">
         <v>1144</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>1143</v>
-      </c>
       <c r="C16" s="7" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="234">
       <c r="A17" s="7" t="s">
-        <v>1130</v>
+        <v>1131</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>1041</v>
+        <v>1042</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>1145</v>
+        <v>1146</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>850</v>
+        <v>851</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>984</v>
+        <v>985</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>1011</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="104">
       <c r="A18" s="7" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="26">
       <c r="A19" s="70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" s="70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>1078</v>
+        <v>1079</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="52">
       <c r="A20" s="7" t="s">
-        <v>943</v>
+        <v>944</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>863</v>
+        <v>864</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>881</v>
+        <v>882</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="338">
       <c r="E21" s="7" t="s">
-        <v>891</v>
+        <v>892</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>976</v>
+        <v>977</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="169">
       <c r="A22" s="7" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>1073</v>
+        <v>1074</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>903</v>
+        <v>904</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>529</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>627</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>528</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="130">
       <c r="A23" s="7" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="169">
       <c r="A24" s="7" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="325">
       <c r="A25" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="52">
       <c r="B43" s="70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="39">
       <c r="B44" s="70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="70" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="26">
       <c r="B52" s="70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="52">
       <c r="A60" s="70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="52">
       <c r="A61" s="70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="65">
       <c r="A62" s="70" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="26">
       <c r="A65" s="70" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="39">
       <c r="A67" s="70" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="2:2" ht="26">
       <c r="B121" s="70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -9514,7 +9517,7 @@
     <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" zoomScalePageLayoutView="125" workbookViewId="0">
       <pane ySplit="3880" topLeftCell="A34" activePane="bottomLeft"/>
       <selection activeCell="F31" sqref="F1:F1048576"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+      <selection pane="bottomLeft" activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -9530,24 +9533,24 @@
   <sheetData>
     <row r="1" spans="1:52" s="15" customFormat="1" ht="26">
       <c r="A1" s="13" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="60" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I1" s="18"/>
       <c r="J1" s="18"/>
@@ -9596,10 +9599,10 @@
     </row>
     <row r="2" spans="1:52" s="15" customFormat="1" ht="26">
       <c r="A2" s="10" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C2" s="11">
         <v>38527</v>
@@ -9608,7 +9611,7 @@
         <v>38533</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -9616,13 +9619,13 @@
     </row>
     <row r="3" spans="1:52" s="15" customFormat="1">
       <c r="A3" s="57" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>1113</v>
+        <v>1114</v>
       </c>
       <c r="C3" s="57" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D3" s="10"/>
       <c r="E3" s="10"/>
@@ -9632,19 +9635,19 @@
     </row>
     <row r="4" spans="1:52" s="15" customFormat="1">
       <c r="A4" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -9653,16 +9656,16 @@
     </row>
     <row r="5" spans="1:52" s="15" customFormat="1">
       <c r="A5" s="37" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -9671,16 +9674,16 @@
     </row>
     <row r="6" spans="1:52" s="15" customFormat="1">
       <c r="A6" s="37" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -9689,16 +9692,16 @@
     </row>
     <row r="7" spans="1:52" s="15" customFormat="1">
       <c r="A7" s="37" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -9707,16 +9710,16 @@
     </row>
     <row r="8" spans="1:52" s="15" customFormat="1">
       <c r="A8" s="37" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B8" s="10" t="s">
+        <v>412</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D8" s="10" t="s">
         <v>411</v>
-      </c>
-      <c r="C8" s="10" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D8" s="10" t="s">
-        <v>410</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -9725,16 +9728,16 @@
     </row>
     <row r="9" spans="1:52" s="15" customFormat="1">
       <c r="A9" s="37" t="s">
-        <v>1068</v>
+        <v>1069</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1069</v>
+        <v>1070</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>1096</v>
+        <v>1097</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -9743,16 +9746,16 @@
     </row>
     <row r="10" spans="1:52" s="15" customFormat="1">
       <c r="A10" s="37" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -9761,16 +9764,16 @@
     </row>
     <row r="11" spans="1:52" s="15" customFormat="1" ht="39">
       <c r="A11" s="37" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -9779,16 +9782,16 @@
     </row>
     <row r="12" spans="1:52" s="15" customFormat="1" ht="39">
       <c r="A12" s="37" t="s">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>1061</v>
+        <v>1062</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -9797,16 +9800,16 @@
     </row>
     <row r="13" spans="1:52" s="15" customFormat="1" ht="39">
       <c r="A13" s="37" t="s">
-        <v>1098</v>
+        <v>1099</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>1062</v>
+        <v>1063</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -9815,16 +9818,16 @@
     </row>
     <row r="14" spans="1:52" s="15" customFormat="1">
       <c r="A14" s="37" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C14" s="37" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -9833,16 +9836,16 @@
     </row>
     <row r="15" spans="1:52" s="15" customFormat="1">
       <c r="A15" s="37" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C15" s="37" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -9851,16 +9854,16 @@
     </row>
     <row r="16" spans="1:52" s="15" customFormat="1">
       <c r="A16" s="37" t="s">
+        <v>149</v>
+      </c>
+      <c r="B16" s="37" t="s">
         <v>148</v>
       </c>
-      <c r="B16" s="37" t="s">
-        <v>147</v>
-      </c>
       <c r="C16" s="37" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -9869,16 +9872,16 @@
     </row>
     <row r="17" spans="1:8" s="15" customFormat="1">
       <c r="A17" s="37" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B17" s="37" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C17" s="37" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
@@ -9887,16 +9890,16 @@
     </row>
     <row r="18" spans="1:8" s="15" customFormat="1">
       <c r="A18" s="37" t="s">
-        <v>1290</v>
+        <v>1291</v>
       </c>
       <c r="B18" s="37" t="s">
-        <v>1243</v>
+        <v>1244</v>
       </c>
       <c r="C18" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -9905,16 +9908,16 @@
     </row>
     <row r="19" spans="1:8" s="15" customFormat="1">
       <c r="A19" s="37" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="37" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C19" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -9923,16 +9926,16 @@
     </row>
     <row r="20" spans="1:8" s="15" customFormat="1">
       <c r="A20" s="37" t="s">
-        <v>1242</v>
+        <v>1243</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>1244</v>
+        <v>1245</v>
       </c>
       <c r="C20" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -9941,16 +9944,16 @@
     </row>
     <row r="21" spans="1:8" s="15" customFormat="1">
       <c r="A21" s="37" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1063</v>
+        <v>1064</v>
       </c>
       <c r="C21" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -9959,16 +9962,16 @@
     </row>
     <row r="22" spans="1:8" s="15" customFormat="1">
       <c r="A22" s="37" t="s">
-        <v>1065</v>
+        <v>1066</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>1066</v>
+        <v>1067</v>
       </c>
       <c r="C22" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -9977,16 +9980,16 @@
     </row>
     <row r="23" spans="1:8" s="15" customFormat="1">
       <c r="A23" s="37" t="s">
-        <v>1157</v>
+        <v>1158</v>
       </c>
       <c r="B23" s="37" t="s">
-        <v>1158</v>
+        <v>1159</v>
       </c>
       <c r="C23" s="37" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>1196</v>
+        <v>1197</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -10001,7 +10004,7 @@
         <v>1</v>
       </c>
       <c r="C24" s="37" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D24" s="10" t="s">
         <v>0</v>
@@ -10013,16 +10016,16 @@
     </row>
     <row r="25" spans="1:8" s="15" customFormat="1">
       <c r="A25" s="37" t="s">
-        <v>1250</v>
+        <v>1251</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="C25" s="37" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -10031,16 +10034,16 @@
     </row>
     <row r="26" spans="1:8" s="15" customFormat="1" ht="26">
       <c r="A26" s="37" t="s">
-        <v>1256</v>
+        <v>1257</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -10049,16 +10052,16 @@
     </row>
     <row r="27" spans="1:8" s="15" customFormat="1" ht="26">
       <c r="A27" s="37" t="s">
-        <v>1305</v>
+        <v>1306</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1306</v>
+        <v>1307</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -10067,16 +10070,16 @@
     </row>
     <row r="28" spans="1:8" s="15" customFormat="1" ht="39">
       <c r="A28" s="10" t="s">
-        <v>1156</v>
+        <v>1157</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>1027</v>
+        <v>1028</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -10085,16 +10088,16 @@
     </row>
     <row r="29" spans="1:8" s="15" customFormat="1" ht="26">
       <c r="A29" s="10" t="s">
-        <v>1231</v>
+        <v>1232</v>
       </c>
       <c r="B29" s="37" t="s">
-        <v>1232</v>
+        <v>1233</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -10103,16 +10106,16 @@
     </row>
     <row r="30" spans="1:8" s="15" customFormat="1" ht="39">
       <c r="A30" s="10" t="s">
-        <v>1304</v>
+        <v>1305</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -10121,16 +10124,16 @@
     </row>
     <row r="31" spans="1:8" s="15" customFormat="1" ht="26">
       <c r="A31" s="10" t="s">
-        <v>1034</v>
+        <v>1035</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -10139,16 +10142,16 @@
     </row>
     <row r="32" spans="1:8" s="15" customFormat="1" ht="39">
       <c r="A32" s="37" t="s">
-        <v>1006</v>
+        <v>1007</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>974</v>
+        <v>975</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>848</v>
+        <v>849</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -10157,16 +10160,16 @@
     </row>
     <row r="33" spans="1:8" s="15" customFormat="1" ht="39">
       <c r="A33" s="37" t="s">
-        <v>969</v>
+        <v>970</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>1070</v>
+        <v>1071</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
@@ -10175,16 +10178,16 @@
     </row>
     <row r="34" spans="1:8" s="15" customFormat="1" ht="26">
       <c r="A34" s="37" t="s">
-        <v>1033</v>
+        <v>1034</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>871</v>
+        <v>872</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -10193,16 +10196,16 @@
     </row>
     <row r="35" spans="1:8" s="15" customFormat="1">
       <c r="A35" s="37" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -10211,16 +10214,16 @@
     </row>
     <row r="36" spans="1:8" s="15" customFormat="1" ht="27" customHeight="1">
       <c r="A36" s="15" t="s">
-        <v>828</v>
+        <v>829</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>829</v>
+        <v>830</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -10229,16 +10232,16 @@
     </row>
     <row r="37" spans="1:8" s="15" customFormat="1" ht="39">
       <c r="A37" s="37" t="s">
-        <v>909</v>
+        <v>910</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -10247,16 +10250,16 @@
     </row>
     <row r="38" spans="1:8" s="15" customFormat="1" ht="39">
       <c r="A38" s="37" t="s">
-        <v>1071</v>
+        <v>1072</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -10265,7 +10268,7 @@
     </row>
     <row r="39" spans="1:8" s="15" customFormat="1" ht="169">
       <c r="A39" s="10" t="s">
-        <v>1173</v>
+        <v>1174</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>6</v>
@@ -10276,25 +10279,27 @@
       <c r="D39" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E39" s="10"/>
+      <c r="E39" s="10" t="s">
+        <v>5</v>
+      </c>
       <c r="F39" s="10" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="G39" s="10"/>
       <c r="H39" s="37"/>
     </row>
     <row r="40" spans="1:8" s="15" customFormat="1" ht="26">
       <c r="A40" s="33" t="s">
+        <v>992</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>1087</v>
+      </c>
+      <c r="D40" s="10" t="s">
         <v>991</v>
-      </c>
-      <c r="B40" s="10" t="s">
-        <v>1038</v>
-      </c>
-      <c r="C40" s="10" t="s">
-        <v>1086</v>
-      </c>
-      <c r="D40" s="10" t="s">
-        <v>990</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -10303,16 +10308,16 @@
     </row>
     <row r="41" spans="1:8" s="15" customFormat="1" ht="26">
       <c r="A41" s="10" t="s">
+        <v>247</v>
+      </c>
+      <c r="B41" s="10" t="s">
         <v>246</v>
       </c>
-      <c r="B41" s="10" t="s">
-        <v>245</v>
-      </c>
       <c r="C41" s="10" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>790</v>
+        <v>791</v>
       </c>
       <c r="E41" s="10"/>
       <c r="F41" s="10"/>
@@ -10322,71 +10327,71 @@
     <row r="42" spans="1:8" s="15" customFormat="1">
       <c r="A42" s="10"/>
       <c r="B42" s="13" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E42" s="30" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F42" s="13" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G42" s="13" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H42" s="39"/>
     </row>
     <row r="43" spans="1:8" s="15" customFormat="1" ht="26">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
-        <v>1284</v>
+        <v>1285</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
       <c r="G43" s="10" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="H43" s="37"/>
     </row>
     <row r="44" spans="1:8" s="15" customFormat="1" ht="39">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
-        <v>1252</v>
+        <v>1253</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="E44" s="37"/>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="H44" s="37"/>
     </row>
     <row r="45" spans="1:8" s="15" customFormat="1" ht="52">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -10396,13 +10401,13 @@
     <row r="46" spans="1:8" s="15" customFormat="1" ht="52">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
-        <v>1257</v>
+        <v>1258</v>
       </c>
       <c r="C46" s="37" t="s">
-        <v>894</v>
+        <v>895</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E46" s="10"/>
       <c r="F46" s="10"/>
@@ -10412,31 +10417,31 @@
     <row r="47" spans="1:8" s="15" customFormat="1" ht="104">
       <c r="A47" s="10"/>
       <c r="B47" s="72" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E47" s="10"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="H47" s="37"/>
     </row>
     <row r="48" spans="1:8" s="15" customFormat="1" ht="91">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>1042</v>
+        <v>1043</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="E48" s="10"/>
       <c r="F48" s="10"/>
@@ -10446,13 +10451,13 @@
     <row r="49" spans="1:9" s="15" customFormat="1" ht="26">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
-        <v>964</v>
+        <v>965</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -10462,13 +10467,13 @@
     <row r="50" spans="1:9" s="15" customFormat="1" ht="26">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -10478,13 +10483,13 @@
     <row r="51" spans="1:9" s="15" customFormat="1" ht="39">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
-        <v>994</v>
+        <v>995</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>979</v>
+        <v>980</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -10494,13 +10499,13 @@
     <row r="52" spans="1:9" s="15" customFormat="1" ht="39">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -10510,13 +10515,13 @@
     <row r="53" spans="1:9" s="38" customFormat="1" ht="39">
       <c r="A53" s="33"/>
       <c r="B53" s="33" t="s">
-        <v>975</v>
+        <v>976</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="E53" s="33"/>
       <c r="F53" s="33"/>
@@ -10526,13 +10531,13 @@
     <row r="54" spans="1:9" s="38" customFormat="1" ht="26">
       <c r="A54" s="33"/>
       <c r="B54" s="33" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="E54" s="33"/>
       <c r="F54" s="33"/>
@@ -10542,13 +10547,13 @@
     <row r="55" spans="1:9" s="38" customFormat="1" ht="39">
       <c r="A55" s="33"/>
       <c r="B55" s="33" t="s">
-        <v>1036</v>
+        <v>1037</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>820</v>
+        <v>821</v>
       </c>
       <c r="D55" s="10" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="E55" s="33"/>
       <c r="F55" s="33"/>
@@ -10558,13 +10563,13 @@
     <row r="56" spans="1:9" s="38" customFormat="1" ht="39">
       <c r="A56" s="33"/>
       <c r="B56" s="33" t="s">
-        <v>1037</v>
+        <v>1038</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>1067</v>
+        <v>1068</v>
       </c>
       <c r="D56" s="10" t="s">
-        <v>1240</v>
+        <v>1241</v>
       </c>
       <c r="E56" s="33"/>
       <c r="F56" s="33"/>
@@ -10574,53 +10579,53 @@
     <row r="57" spans="1:9" s="38" customFormat="1" ht="26">
       <c r="A57" s="33"/>
       <c r="B57" s="33" t="s">
+        <v>994</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>881</v>
+      </c>
+      <c r="D57" s="33" t="s">
         <v>993</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>880</v>
-      </c>
-      <c r="D57" s="33" t="s">
-        <v>992</v>
       </c>
       <c r="E57" s="33"/>
       <c r="F57" s="33" t="s">
         <v>3</v>
       </c>
       <c r="G57" s="33" t="s">
-        <v>1025</v>
+        <v>1026</v>
       </c>
       <c r="H57" s="61"/>
     </row>
     <row r="58" spans="1:9" s="38" customFormat="1" ht="65">
       <c r="A58" s="33"/>
       <c r="B58" s="34" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C58" s="34" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D58" s="33"/>
       <c r="E58" s="35"/>
       <c r="F58" s="33"/>
       <c r="G58" s="33" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>870</v>
+        <v>871</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>946</v>
+        <v>947</v>
       </c>
     </row>
     <row r="59" spans="1:9" ht="26">
       <c r="B59" s="7" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C59" s="7" t="s">
-        <v>819</v>
+        <v>820</v>
       </c>
       <c r="D59" s="10" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="33"/>
@@ -10628,27 +10633,27 @@
     </row>
     <row r="60" spans="1:9" ht="26" customHeight="1">
       <c r="A60" s="13" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B60" s="13" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E60" s="30" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="1" customFormat="1" ht="26">
       <c r="A61" s="10" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B61" s="40"/>
       <c r="C61" s="40"/>
@@ -10660,15 +10665,15 @@
     </row>
     <row r="62" spans="1:9" s="1" customFormat="1" ht="39">
       <c r="A62" s="10" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B62" s="40"/>
       <c r="C62" s="40"/>
       <c r="D62" s="9" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E62" s="41" t="s">
-        <v>1075</v>
+        <v>1076</v>
       </c>
       <c r="F62" s="40"/>
       <c r="G62" s="40"/>
@@ -10676,32 +10681,32 @@
     </row>
     <row r="63" spans="1:9" s="1" customFormat="1" ht="130">
       <c r="A63" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B63" s="81" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C63" s="81"/>
       <c r="D63" s="81" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E63" s="41"/>
       <c r="F63" s="40" t="s">
-        <v>1074</v>
+        <v>1075</v>
       </c>
       <c r="G63" s="40"/>
       <c r="H63" s="63"/>
     </row>
     <row r="64" spans="1:9" s="1" customFormat="1" ht="130">
       <c r="A64" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B64" s="81" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C64" s="81"/>
       <c r="D64" s="81" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E64" s="41"/>
       <c r="F64" s="40"/>
@@ -10710,14 +10715,14 @@
     </row>
     <row r="65" spans="1:8" s="1" customFormat="1" ht="91">
       <c r="A65" s="10" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="B65" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C65" s="7"/>
       <c r="D65" s="7" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
       <c r="E65" s="7"/>
       <c r="F65" s="40"/>
@@ -10726,40 +10731,40 @@
     </row>
     <row r="66" spans="1:8" ht="91">
       <c r="A66" s="10" t="s">
-        <v>847</v>
+        <v>848</v>
       </c>
       <c r="B66" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="D66" s="7" t="s">
-        <v>1106</v>
+        <v>1107</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="117">
       <c r="A67" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B67" s="7" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D67" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="117">
       <c r="A68" s="33" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B68" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="D68" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:8" ht="26">
       <c r="A69" s="33" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C69" s="10"/>
     </row>
@@ -10770,7 +10775,7 @@
     </row>
     <row r="123" spans="2:2" ht="26">
       <c r="B123" s="70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -10804,38 +10809,38 @@
   <sheetData>
     <row r="1" spans="1:10" s="18" customFormat="1" ht="26">
       <c r="A1" s="13" t="s">
-        <v>809</v>
+        <v>810</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>885</v>
+        <v>886</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
       <c r="I1" s="43" t="s">
-        <v>912</v>
+        <v>913</v>
       </c>
       <c r="J1" s="29" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="15" customFormat="1" ht="65">
       <c r="A2" s="10" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C2" s="42">
         <v>38486</v>
@@ -10844,21 +10849,21 @@
         <v>38492</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
       <c r="H2" s="10"/>
       <c r="I2" s="44" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>794</v>
+        <v>795</v>
       </c>
     </row>
     <row r="3" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A3" s="57" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="42"/>
@@ -10872,40 +10877,40 @@
     </row>
     <row r="4" spans="1:10" s="15" customFormat="1" ht="65">
       <c r="A4" s="13" t="s">
-        <v>796</v>
+        <v>797</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>797</v>
+        <v>798</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>798</v>
+        <v>799</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
       <c r="I4" s="44"/>
       <c r="J4" s="12" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="5" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A5" s="10" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="10"/>
@@ -10913,21 +10918,21 @@
       <c r="H5" s="10"/>
       <c r="I5" s="44"/>
       <c r="J5" s="12" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
     </row>
     <row r="6" spans="1:10" s="15" customFormat="1">
       <c r="A6" s="10" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="10"/>
@@ -10938,16 +10943,16 @@
     </row>
     <row r="7" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A7" s="10" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1286</v>
+        <v>1287</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="10"/>
@@ -10958,16 +10963,16 @@
     </row>
     <row r="8" spans="1:10" s="15" customFormat="1" ht="78">
       <c r="A8" s="10" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1265</v>
+        <v>1266</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1266</v>
+        <v>1267</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="10"/>
@@ -10978,16 +10983,16 @@
     </row>
     <row r="9" spans="1:10" s="15" customFormat="1">
       <c r="A9" s="10" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="10"/>
@@ -10998,16 +11003,16 @@
     </row>
     <row r="10" spans="1:10" s="15" customFormat="1">
       <c r="A10" s="10" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="10"/>
@@ -11018,16 +11023,16 @@
     </row>
     <row r="11" spans="1:10" s="15" customFormat="1" ht="24" customHeight="1">
       <c r="A11" s="10" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>1267</v>
+        <v>1268</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="E11" s="20"/>
       <c r="F11" s="10"/>
@@ -11038,16 +11043,16 @@
     </row>
     <row r="12" spans="1:10" s="15" customFormat="1" ht="69" customHeight="1">
       <c r="A12" s="10" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>253</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>252</v>
       </c>
       <c r="E12" s="20"/>
       <c r="F12" s="10"/>
@@ -11058,17 +11063,17 @@
     </row>
     <row r="13" spans="1:10" s="15" customFormat="1" ht="182">
       <c r="A13" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D13" s="10"/>
       <c r="E13" s="20" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="F13" s="10"/>
       <c r="G13" s="10"/>
@@ -11078,16 +11083,16 @@
     </row>
     <row r="14" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A14" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D14" s="64" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="F14" s="10"/>
       <c r="G14" s="10"/>
@@ -11097,16 +11102,16 @@
     </row>
     <row r="15" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A15" s="10" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="E15" s="20"/>
       <c r="F15" s="10"/>
@@ -11117,16 +11122,16 @@
     </row>
     <row r="16" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A16" s="10" t="s">
-        <v>846</v>
+        <v>847</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E16" s="20"/>
       <c r="F16" s="10"/>
@@ -11137,20 +11142,20 @@
     </row>
     <row r="17" spans="1:10" s="15" customFormat="1" ht="78">
       <c r="A17" s="10" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E17" s="20"/>
       <c r="F17" s="20" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
@@ -11159,16 +11164,16 @@
     </row>
     <row r="18" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A18" s="10" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="10"/>
@@ -11179,16 +11184,16 @@
     </row>
     <row r="19" spans="1:10" s="15" customFormat="1">
       <c r="A19" s="10" t="s">
-        <v>783</v>
+        <v>784</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="E19" s="20"/>
       <c r="F19" s="10"/>
@@ -11199,16 +11204,16 @@
     </row>
     <row r="20" spans="1:10" s="15" customFormat="1">
       <c r="A20" s="10" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="E20" s="20"/>
       <c r="F20" s="10"/>
@@ -11219,16 +11224,16 @@
     </row>
     <row r="21" spans="1:10" s="15" customFormat="1" ht="65">
       <c r="A21" s="10" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="10"/>
@@ -11239,16 +11244,16 @@
     </row>
     <row r="22" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A22" s="10" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E22" s="20"/>
       <c r="F22" s="10"/>
@@ -11259,16 +11264,16 @@
     </row>
     <row r="23" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A23" s="10" t="s">
+        <v>633</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>340</v>
+      </c>
+      <c r="C23" s="10" t="s">
         <v>632</v>
       </c>
-      <c r="B23" s="10" t="s">
-        <v>339</v>
-      </c>
-      <c r="C23" s="10" t="s">
-        <v>631</v>
-      </c>
       <c r="D23" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E23" s="20"/>
       <c r="F23" s="10"/>
@@ -11279,16 +11284,16 @@
     </row>
     <row r="24" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A24" s="10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E24" s="20"/>
       <c r="F24" s="10"/>
@@ -11299,16 +11304,16 @@
     </row>
     <row r="25" spans="1:10" s="15" customFormat="1">
       <c r="A25" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>973</v>
+        <v>974</v>
       </c>
       <c r="E25" s="20"/>
       <c r="F25" s="10"/>
@@ -11319,16 +11324,16 @@
     </row>
     <row r="26" spans="1:10" s="15" customFormat="1">
       <c r="A26" s="10" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="E26" s="20"/>
       <c r="F26" s="10"/>
@@ -11339,16 +11344,16 @@
     </row>
     <row r="27" spans="1:10" s="15" customFormat="1">
       <c r="A27" s="10" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="E27" s="20"/>
       <c r="F27" s="10"/>
@@ -11359,16 +11364,16 @@
     </row>
     <row r="28" spans="1:10" s="15" customFormat="1" ht="52">
       <c r="A28" s="10" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E28" s="20"/>
       <c r="F28" s="10"/>
@@ -11379,16 +11384,16 @@
     </row>
     <row r="29" spans="1:10" s="15" customFormat="1" ht="52">
       <c r="A29" s="10" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E29" s="20"/>
       <c r="F29" s="10"/>
@@ -11399,16 +11404,16 @@
     </row>
     <row r="30" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A30" s="15" t="s">
-        <v>1258</v>
+        <v>1259</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>1259</v>
+        <v>1260</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>1260</v>
+        <v>1261</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>1254</v>
+        <v>1255</v>
       </c>
       <c r="E30" s="20"/>
       <c r="F30" s="10"/>
@@ -11419,16 +11424,16 @@
     </row>
     <row r="31" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A31" s="10" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E31" s="20"/>
       <c r="F31" s="10"/>
@@ -11439,16 +11444,16 @@
     </row>
     <row r="32" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A32" s="10" t="s">
-        <v>1090</v>
+        <v>1091</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>1296</v>
+        <v>1297</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E32" s="20"/>
       <c r="F32" s="10"/>
@@ -11459,16 +11464,16 @@
     </row>
     <row r="33" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A33" s="10" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>781</v>
+        <v>782</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>782</v>
+        <v>783</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E33" s="20"/>
       <c r="F33" s="10"/>
@@ -11479,16 +11484,16 @@
     </row>
     <row r="34" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A34" s="15" t="s">
-        <v>1048</v>
+        <v>1049</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D34" s="15" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="E34" s="20"/>
       <c r="F34" s="10"/>
@@ -11499,16 +11504,16 @@
     </row>
     <row r="35" spans="1:10" s="15" customFormat="1" ht="65">
       <c r="A35" s="10" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B35" s="10" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="E35" s="20"/>
       <c r="F35" s="10"/>
@@ -11519,16 +11524,16 @@
     </row>
     <row r="36" spans="1:10" s="15" customFormat="1" ht="52">
       <c r="A36" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B36" s="10" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E36" s="20"/>
       <c r="F36" s="10"/>
@@ -11539,16 +11544,16 @@
     </row>
     <row r="37" spans="1:10" s="15" customFormat="1" ht="78">
       <c r="A37" s="10" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E37" s="20"/>
       <c r="F37" s="10"/>
@@ -11559,16 +11564,16 @@
     </row>
     <row r="38" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A38" s="10" t="s">
-        <v>1142</v>
+        <v>1143</v>
       </c>
       <c r="B38" s="7" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="E38" s="20"/>
       <c r="F38" s="10"/>
@@ -11579,16 +11584,16 @@
     </row>
     <row r="39" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A39" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B39" s="10" t="s">
+        <v>850</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>285</v>
+      </c>
+      <c r="D39" s="7" t="s">
         <v>849</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="D39" s="7" t="s">
-        <v>848</v>
       </c>
       <c r="E39" s="20"/>
       <c r="F39" s="10"/>
@@ -11599,16 +11604,16 @@
     </row>
     <row r="40" spans="1:10" s="15" customFormat="1" ht="65">
       <c r="A40" s="10" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E40" s="20"/>
       <c r="F40" s="10"/>
@@ -11619,16 +11624,16 @@
     </row>
     <row r="41" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A41" s="10" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="B41" s="10" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="E41" s="20"/>
       <c r="F41" s="10"/>
@@ -11639,16 +11644,16 @@
     </row>
     <row r="42" spans="1:10" s="15" customFormat="1" ht="52">
       <c r="A42" s="10" t="s">
-        <v>1122</v>
+        <v>1123</v>
       </c>
       <c r="B42" s="10" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>1043</v>
+        <v>1044</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="E42" s="20"/>
       <c r="F42" s="10"/>
@@ -11660,25 +11665,25 @@
     <row r="43" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A43" s="10"/>
       <c r="B43" s="13" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E43" s="30" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F43" s="13" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G43" s="13" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H43" s="13" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="I43" s="44"/>
       <c r="J43" s="12"/>
@@ -11686,20 +11691,20 @@
     <row r="44" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A44" s="10"/>
       <c r="B44" s="10" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>1121</v>
+        <v>1122</v>
       </c>
       <c r="E44" s="56" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="F44" s="10"/>
       <c r="G44" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H44" s="10"/>
       <c r="I44" s="44"/>
@@ -11708,18 +11713,18 @@
     <row r="45" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A45" s="10"/>
       <c r="B45" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E45" s="20"/>
       <c r="F45" s="10"/>
       <c r="G45" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H45" s="10"/>
       <c r="I45" s="44"/>
@@ -11728,40 +11733,40 @@
     <row r="46" spans="1:10" s="15" customFormat="1" ht="78">
       <c r="A46" s="10"/>
       <c r="B46" s="10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C46" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D46" s="10" t="s">
-        <v>1009</v>
+        <v>1010</v>
       </c>
       <c r="E46" s="20"/>
       <c r="F46" s="10"/>
       <c r="G46" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H46" s="10"/>
       <c r="I46" s="44" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="J46" s="12"/>
     </row>
     <row r="47" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A47" s="10"/>
       <c r="B47" s="10" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C47" s="10" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D47" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E47" s="20"/>
       <c r="F47" s="10"/>
       <c r="G47" s="10" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="H47" s="10"/>
       <c r="I47" s="44"/>
@@ -11770,13 +11775,13 @@
     <row r="48" spans="1:10" s="15" customFormat="1" ht="26">
       <c r="A48" s="10"/>
       <c r="B48" s="10" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="C48" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="E48" s="20"/>
       <c r="F48" s="10"/>
@@ -11788,13 +11793,13 @@
     <row r="49" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A49" s="10"/>
       <c r="B49" s="10" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="E49" s="20"/>
       <c r="F49" s="10"/>
@@ -11806,18 +11811,18 @@
     <row r="50" spans="1:10" s="15" customFormat="1" ht="52">
       <c r="A50" s="10"/>
       <c r="B50" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C50" s="21" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D50" s="21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="10"/>
       <c r="G50" s="10" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H50" s="10"/>
       <c r="I50" s="44"/>
@@ -11826,18 +11831,18 @@
     <row r="51" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A51" s="10"/>
       <c r="B51" s="10" t="s">
-        <v>1301</v>
+        <v>1302</v>
       </c>
       <c r="C51" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="D51" s="21" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="E51" s="20"/>
       <c r="F51" s="10"/>
       <c r="G51" s="10" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="H51" s="10"/>
       <c r="I51" s="44"/>
@@ -11846,18 +11851,18 @@
     <row r="52" spans="1:10" s="15" customFormat="1" ht="39">
       <c r="A52" s="10"/>
       <c r="B52" s="10" t="s">
-        <v>814</v>
+        <v>815</v>
       </c>
       <c r="C52" s="21" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>1300</v>
+        <v>1301</v>
       </c>
       <c r="E52" s="20"/>
       <c r="F52" s="10"/>
       <c r="G52" s="10" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="H52" s="10"/>
       <c r="I52" s="44"/>
@@ -11866,32 +11871,32 @@
     <row r="53" spans="1:10" s="15" customFormat="1" ht="52">
       <c r="A53" s="10"/>
       <c r="B53" s="10" t="s">
-        <v>1261</v>
+        <v>1262</v>
       </c>
       <c r="C53" s="21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E53" s="20"/>
       <c r="F53" s="10"/>
       <c r="G53" s="10" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H53" s="10"/>
       <c r="I53" s="44" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="J53" s="12"/>
     </row>
     <row r="54" spans="1:10" s="15" customFormat="1" ht="65">
       <c r="A54" s="10"/>
       <c r="B54" s="13" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D54" s="10"/>
       <c r="E54" s="20"/>
@@ -11904,10 +11909,10 @@
     <row r="55" spans="1:10" s="15" customFormat="1">
       <c r="A55" s="10"/>
       <c r="B55" s="10" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="C55" s="10" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D55" s="10"/>
       <c r="E55" s="20"/>
@@ -11920,10 +11925,10 @@
     <row r="56" spans="1:10" s="15" customFormat="1">
       <c r="A56" s="10"/>
       <c r="B56" s="10" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C56" s="10" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D56" s="10"/>
       <c r="E56" s="20"/>
@@ -11936,10 +11941,10 @@
     <row r="57" spans="1:10" s="15" customFormat="1">
       <c r="A57" s="10"/>
       <c r="B57" s="10" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C57" s="10" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="D57" s="10"/>
       <c r="E57" s="20"/>
@@ -11951,19 +11956,19 @@
     </row>
     <row r="58" spans="1:10" s="18" customFormat="1" ht="26">
       <c r="A58" s="13" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B58" s="13" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C58" s="13" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E58" s="30" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F58" s="13"/>
       <c r="G58" s="13"/>
@@ -11992,10 +11997,10 @@
         <v>lps+lbp-&gt;lbplps</v>
       </c>
       <c r="B60" s="10" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D60" s="10">
         <v>11079463</v>
@@ -12013,10 +12018,10 @@
         <v>cs+lbplps-&gt;cslps + lbp</v>
       </c>
       <c r="B61" s="10" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="D61" s="10">
         <v>7537731</v>
@@ -12034,10 +12039,10 @@
         <v>r1lps+r1lps -&gt; rlps2 + 2 cs</v>
       </c>
       <c r="B62" s="10" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D62" s="10">
         <v>14517279</v>
@@ -12055,10 +12060,10 @@
         <v>rlps2 + tirappip2 -&gt; rlps2-tirap+pip2</v>
       </c>
       <c r="B63" s="10" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="C63" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D63" s="10">
         <v>11544529</v>
@@ -12076,10 +12081,10 @@
         <v>rlps2+tram -&gt; rlps2-tram</v>
       </c>
       <c r="B64" s="10" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C64" s="10" t="s">
-        <v>845</v>
+        <v>846</v>
       </c>
       <c r="D64" s="10">
         <v>17457343</v>
@@ -12097,10 +12102,10 @@
         <v>rlps2-tirap + myd88 -&gt; rlps2-tm</v>
       </c>
       <c r="B65" s="10" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="D65" s="10">
         <v>16751103</v>
@@ -12118,10 +12123,10 @@
         <v>rlps2-tram + trif -&gt; rlps2-tt</v>
       </c>
       <c r="B66" s="10" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C66" s="10" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="D66" s="10">
         <v>14519765</v>
@@ -12176,24 +12181,24 @@
   <sheetData>
     <row r="1" spans="1:52" s="15" customFormat="1" ht="26">
       <c r="A1" s="13" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="32" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I1" s="46"/>
       <c r="J1" s="18"/>
@@ -12242,10 +12247,10 @@
     </row>
     <row r="2" spans="1:52" ht="26">
       <c r="A2" s="10" t="s">
-        <v>1216</v>
+        <v>1217</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C2" s="11">
         <v>38542</v>
@@ -12254,7 +12259,7 @@
         <v>38634</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>1285</v>
+        <v>1286</v>
       </c>
       <c r="F2" s="10"/>
       <c r="G2" s="10"/>
@@ -12262,16 +12267,16 @@
     </row>
     <row r="3" spans="1:52" s="79" customFormat="1" ht="26">
       <c r="A3" s="74" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E3" s="74"/>
       <c r="F3" s="74"/>
@@ -12281,19 +12286,19 @@
     </row>
     <row r="4" spans="1:52" s="15" customFormat="1">
       <c r="A4" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="10"/>
@@ -12302,16 +12307,16 @@
     </row>
     <row r="5" spans="1:52" ht="39">
       <c r="A5" s="10" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>1099</v>
+        <v>1100</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1021</v>
+        <v>1022</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
@@ -12320,16 +12325,16 @@
     </row>
     <row r="6" spans="1:52" ht="39">
       <c r="A6" s="10" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>858</v>
+        <v>859</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1119</v>
+        <v>1120</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
@@ -12338,16 +12343,16 @@
     </row>
     <row r="7" spans="1:52" ht="39">
       <c r="A7" s="10" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>937</v>
+        <v>938</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1120</v>
+        <v>1121</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
@@ -12356,16 +12361,16 @@
     </row>
     <row r="8" spans="1:52" ht="52">
       <c r="A8" s="10" t="s">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>958</v>
+        <v>959</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
@@ -12374,16 +12379,16 @@
     </row>
     <row r="9" spans="1:52" ht="52">
       <c r="A9" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>1040</v>
       </c>
-      <c r="B9" s="10" t="s">
-        <v>1039</v>
-      </c>
       <c r="C9" s="10" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
@@ -12392,16 +12397,16 @@
     </row>
     <row r="10" spans="1:52" ht="52">
       <c r="A10" s="10" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1222</v>
+        <v>1223</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
@@ -12410,16 +12415,16 @@
     </row>
     <row r="11" spans="1:52" ht="39">
       <c r="A11" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
@@ -12428,16 +12433,16 @@
     </row>
     <row r="12" spans="1:52" ht="52">
       <c r="A12" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
@@ -12446,16 +12451,16 @@
     </row>
     <row r="13" spans="1:52" ht="26">
       <c r="A13" s="10" t="s">
-        <v>826</v>
+        <v>827</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>945</v>
+        <v>946</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
@@ -12464,16 +12469,16 @@
     </row>
     <row r="14" spans="1:52" ht="65">
       <c r="A14" s="10" t="s">
-        <v>963</v>
+        <v>964</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>890</v>
+        <v>891</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>1051</v>
+        <v>1052</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
@@ -12482,16 +12487,16 @@
     </row>
     <row r="15" spans="1:52" ht="26">
       <c r="A15" s="10" t="s">
-        <v>1127</v>
+        <v>1128</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>1124</v>
+        <v>1125</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>876</v>
+        <v>877</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
@@ -12500,16 +12505,16 @@
     </row>
     <row r="16" spans="1:52" ht="52">
       <c r="A16" s="10" t="s">
-        <v>1050</v>
+        <v>1051</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>1010</v>
+        <v>1011</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
@@ -12518,10 +12523,10 @@
     </row>
     <row r="17" spans="1:8" ht="26">
       <c r="A17" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>1218</v>
+        <v>1219</v>
       </c>
       <c r="C17" s="10"/>
       <c r="D17" s="10"/>
@@ -12532,16 +12537,16 @@
     </row>
     <row r="18" spans="1:8" ht="46" customHeight="1">
       <c r="A18" s="10" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
@@ -12550,16 +12555,16 @@
     </row>
     <row r="19" spans="1:8" ht="41" customHeight="1">
       <c r="A19" s="10" t="s">
+        <v>1212</v>
+      </c>
+      <c r="B19" s="10" t="s">
         <v>1211</v>
       </c>
-      <c r="B19" s="10" t="s">
-        <v>1210</v>
-      </c>
       <c r="C19" s="10" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -12568,16 +12573,16 @@
     </row>
     <row r="20" spans="1:8" ht="41" customHeight="1">
       <c r="A20" s="72" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" s="72" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
@@ -12586,16 +12591,16 @@
     </row>
     <row r="21" spans="1:8" ht="41" customHeight="1">
       <c r="A21" s="10" t="s">
-        <v>1282</v>
+        <v>1283</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>1283</v>
+        <v>1284</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1064</v>
+        <v>1065</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
@@ -12604,16 +12609,16 @@
     </row>
     <row r="22" spans="1:8" ht="41" customHeight="1">
       <c r="A22" s="10" t="s">
-        <v>951</v>
+        <v>952</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
@@ -12622,16 +12627,16 @@
     </row>
     <row r="23" spans="1:8" ht="41" customHeight="1">
       <c r="A23" s="10" t="s">
-        <v>952</v>
+        <v>953</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
@@ -12640,16 +12645,16 @@
     </row>
     <row r="24" spans="1:8" ht="41" customHeight="1">
       <c r="A24" s="10" t="s">
-        <v>949</v>
+        <v>950</v>
       </c>
       <c r="B24" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>1278</v>
+      </c>
+      <c r="D24" s="10" t="s">
         <v>235</v>
-      </c>
-      <c r="C24" s="10" t="s">
-        <v>1277</v>
-      </c>
-      <c r="D24" s="10" t="s">
-        <v>234</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
@@ -12658,16 +12663,16 @@
     </row>
     <row r="25" spans="1:8" ht="41" customHeight="1">
       <c r="A25" s="10" t="s">
-        <v>950</v>
+        <v>951</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>1277</v>
+        <v>1278</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -12676,16 +12681,16 @@
     </row>
     <row r="26" spans="1:8" ht="41" customHeight="1">
       <c r="A26" s="68" t="s">
-        <v>1183</v>
+        <v>1184</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>1184</v>
+        <v>1185</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -12694,16 +12699,16 @@
     </row>
     <row r="27" spans="1:8" ht="41" customHeight="1">
       <c r="A27" s="68" t="s">
-        <v>1292</v>
+        <v>1293</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>1287</v>
+        <v>1288</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>1185</v>
+        <v>1186</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -12712,16 +12717,16 @@
     </row>
     <row r="28" spans="1:8" ht="41" customHeight="1">
       <c r="A28" s="10" t="s">
-        <v>1288</v>
+        <v>1289</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>1289</v>
+        <v>1290</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -12730,16 +12735,16 @@
     </row>
     <row r="29" spans="1:8" ht="41" customHeight="1">
       <c r="A29" s="10" t="s">
-        <v>1202</v>
+        <v>1203</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>1203</v>
+        <v>1204</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
@@ -12748,16 +12753,16 @@
     </row>
     <row r="30" spans="1:8" ht="41" customHeight="1">
       <c r="A30" s="10" t="s">
-        <v>1308</v>
+        <v>1309</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>1309</v>
+        <v>1310</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -12767,35 +12772,35 @@
     <row r="31" spans="1:8" ht="26">
       <c r="A31" s="10"/>
       <c r="B31" s="13" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C31" s="13" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E31" s="30" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F31" s="13" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G31" s="13" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="H31" s="39"/>
     </row>
     <row r="32" spans="1:8" ht="52">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
-        <v>995</v>
+        <v>996</v>
       </c>
       <c r="C32" s="58" t="s">
-        <v>970</v>
+        <v>971</v>
       </c>
       <c r="D32" s="58" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E32" s="30"/>
       <c r="F32" s="13"/>
@@ -12805,31 +12810,31 @@
     <row r="33" spans="1:8" ht="117">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="10"/>
       <c r="H33" s="10" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="52">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
-        <v>1087</v>
+        <v>1088</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -12839,13 +12844,13 @@
     <row r="35" spans="1:8" ht="52">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
-        <v>1186</v>
+        <v>1187</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>1102</v>
+        <v>1103</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -12855,13 +12860,13 @@
     <row r="36" spans="1:8" ht="52">
       <c r="A36" s="10"/>
       <c r="B36" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C36" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
@@ -12871,13 +12876,13 @@
     <row r="37" spans="1:8" ht="26">
       <c r="A37" s="10"/>
       <c r="B37" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="C37" s="10" t="s">
-        <v>1088</v>
+        <v>1089</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
@@ -12887,13 +12892,13 @@
     <row r="38" spans="1:8" ht="26">
       <c r="A38" s="10"/>
       <c r="B38" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C38" s="10" t="s">
-        <v>1291</v>
+        <v>1292</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -12903,13 +12908,13 @@
     <row r="39" spans="1:8" ht="26">
       <c r="A39" s="10"/>
       <c r="B39" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="C39" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>972</v>
+        <v>973</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -12919,13 +12924,13 @@
     <row r="40" spans="1:8" ht="26">
       <c r="A40" s="10"/>
       <c r="B40" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>1103</v>
+        <v>1104</v>
       </c>
       <c r="D40" s="10" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>
@@ -12935,13 +12940,13 @@
     <row r="41" spans="1:8" s="66" customFormat="1" ht="26">
       <c r="A41" s="65"/>
       <c r="B41" s="68" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C41" s="68" t="s">
         <v>1182</v>
       </c>
-      <c r="C41" s="68" t="s">
-        <v>1181</v>
-      </c>
       <c r="D41" s="37" t="s">
-        <v>1179</v>
+        <v>1180</v>
       </c>
       <c r="E41" s="65"/>
       <c r="F41" s="65"/>
@@ -12951,13 +12956,13 @@
     <row r="42" spans="1:8" ht="26">
       <c r="A42" s="10"/>
       <c r="B42" s="10" t="s">
-        <v>1238</v>
+        <v>1239</v>
       </c>
       <c r="C42" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>971</v>
+        <v>972</v>
       </c>
       <c r="E42" s="10"/>
       <c r="F42" s="10"/>
@@ -12967,13 +12972,13 @@
     <row r="43" spans="1:8" ht="26">
       <c r="A43" s="10"/>
       <c r="B43" s="10" t="s">
-        <v>1237</v>
+        <v>1238</v>
       </c>
       <c r="C43" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="E43" s="10"/>
       <c r="F43" s="10"/>
@@ -12983,13 +12988,13 @@
     <row r="44" spans="1:8" ht="26">
       <c r="A44" s="10"/>
       <c r="B44" s="73" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C44" s="10" t="s">
-        <v>1104</v>
+        <v>1105</v>
       </c>
       <c r="D44" s="10" t="s">
-        <v>1293</v>
+        <v>1294</v>
       </c>
       <c r="E44" s="10"/>
       <c r="F44" s="10"/>
@@ -12999,13 +13004,13 @@
     <row r="45" spans="1:8" ht="26">
       <c r="A45" s="10"/>
       <c r="B45" s="73" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C45" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D45" s="10" t="s">
-        <v>1294</v>
+        <v>1295</v>
       </c>
       <c r="E45" s="10"/>
       <c r="F45" s="10"/>
@@ -13015,13 +13020,13 @@
     <row r="46" spans="1:8" s="67" customFormat="1" ht="26">
       <c r="A46" s="37"/>
       <c r="B46" s="73" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C46" s="68" t="s">
+        <v>1181</v>
+      </c>
+      <c r="D46" s="37" t="s">
         <v>1180</v>
-      </c>
-      <c r="D46" s="37" t="s">
-        <v>1179</v>
       </c>
       <c r="E46" s="37"/>
       <c r="F46" s="37"/>
@@ -13031,10 +13036,10 @@
     <row r="47" spans="1:8" ht="39">
       <c r="A47" s="10"/>
       <c r="B47" s="13" t="s">
-        <v>1047</v>
+        <v>1048</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>997</v>
+        <v>998</v>
       </c>
       <c r="D47" s="10"/>
       <c r="E47" s="20"/>
@@ -13044,19 +13049,19 @@
     </row>
     <row r="48" spans="1:8" s="1" customFormat="1" ht="26">
       <c r="A48" s="13" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B48" s="13" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E48" s="30" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F48" s="13"/>
       <c r="G48" s="13"/>
@@ -13064,16 +13069,16 @@
     </row>
     <row r="49" spans="1:8" ht="78" customHeight="1">
       <c r="A49" s="10" t="s">
-        <v>1164</v>
+        <v>1165</v>
       </c>
       <c r="B49" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D49" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E49" s="10"/>
       <c r="F49" s="10"/>
@@ -13082,16 +13087,16 @@
     </row>
     <row r="50" spans="1:8" ht="78" customHeight="1">
       <c r="A50" s="10" t="s">
-        <v>1208</v>
+        <v>1209</v>
       </c>
       <c r="B50" s="10" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="C50" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D50" s="10" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="E50" s="10"/>
       <c r="F50" s="10"/>
@@ -13100,16 +13105,16 @@
     </row>
     <row r="51" spans="1:8" ht="52">
       <c r="A51" s="10" t="s">
-        <v>1280</v>
+        <v>1281</v>
       </c>
       <c r="B51" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C51" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E51" s="10"/>
       <c r="F51" s="10"/>
@@ -13118,16 +13123,16 @@
     </row>
     <row r="52" spans="1:8" ht="52">
       <c r="A52" s="10" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="B52" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C52" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D52" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E52" s="10"/>
       <c r="F52" s="10"/>
@@ -13136,16 +13141,16 @@
     </row>
     <row r="53" spans="1:8" ht="52">
       <c r="A53" s="10" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="B53" s="72" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D53" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E53" s="10"/>
       <c r="F53" s="10"/>
@@ -13154,16 +13159,16 @@
     </row>
     <row r="54" spans="1:8" ht="52">
       <c r="A54" s="10" t="s">
-        <v>1239</v>
+        <v>1240</v>
       </c>
       <c r="B54" s="10" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C54" s="10" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="D54" s="10" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="E54" s="10"/>
       <c r="F54" s="10"/>
@@ -13211,7 +13216,7 @@
     </row>
     <row r="122" spans="2:2" ht="26">
       <c r="B122" s="70" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
@@ -13243,179 +13248,179 @@
   <sheetData>
     <row r="1" spans="1:3" ht="39">
       <c r="A1" s="10" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>1029</v>
+        <v>1030</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>873</v>
+        <v>874</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="247">
       <c r="A2" s="10" t="s">
-        <v>916</v>
+        <v>917</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>944</v>
+        <v>945</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="10" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B3" s="10"/>
       <c r="C3" s="10" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="52">
       <c r="A4" s="10" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>813</v>
+        <v>814</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="26">
       <c r="A5" s="10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>938</v>
+        <v>939</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="117">
       <c r="A6" s="10" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>957</v>
+        <v>958</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="130">
       <c r="A7" s="51" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>942</v>
+        <v>943</v>
       </c>
       <c r="C7" s="51" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="95" customHeight="1">
       <c r="A8" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>1072</v>
+        <v>1073</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1023</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="26">
       <c r="A9" s="10" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>934</v>
+        <v>935</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="117">
       <c r="A10" s="10" t="s">
-        <v>853</v>
+        <v>854</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>932</v>
+        <v>933</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1022</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="195">
       <c r="A11" s="10" t="s">
-        <v>854</v>
+        <v>855</v>
       </c>
       <c r="B11" s="10" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>1101</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="26">
       <c r="A19" s="70" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B19" s="70" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="2:2" ht="39">
       <c r="B43" s="70" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="44" spans="2:2" ht="26">
       <c r="B44" s="70" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="45" spans="2:2">
       <c r="B45" s="70" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="26">
       <c r="B52" s="70" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="78">
       <c r="A60" s="70" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="91">
       <c r="A61" s="70" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="65">
       <c r="A62" s="70" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="65" spans="1:1" ht="26">
       <c r="A65" s="70" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:1" ht="39">
       <c r="A67" s="70" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="121" spans="2:2" ht="26">
       <c r="B121" s="70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -13451,24 +13456,24 @@
   <sheetData>
     <row r="1" spans="1:53" s="15" customFormat="1" ht="26">
       <c r="A1" s="13" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
       <c r="I1" s="32" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="J1" s="46"/>
       <c r="K1" s="18"/>
@@ -13517,10 +13522,10 @@
     </row>
     <row r="2" spans="1:53" ht="52">
       <c r="A2" s="10" t="s">
-        <v>1118</v>
+        <v>1119</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>914</v>
+        <v>915</v>
       </c>
       <c r="C2" s="11">
         <v>38644</v>
@@ -13529,24 +13534,24 @@
         <v>38670</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:53" s="79" customFormat="1" ht="39">
       <c r="A3" s="74" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D3" s="74" t="s">
-        <v>1020</v>
+        <v>1021</v>
       </c>
       <c r="E3" s="74" t="s">
-        <v>1117</v>
+        <v>1118</v>
       </c>
       <c r="G3" s="74"/>
       <c r="H3" s="74"/>
@@ -13555,19 +13560,19 @@
     </row>
     <row r="4" spans="1:53" s="15" customFormat="1">
       <c r="A4" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="G4" s="10"/>
       <c r="H4" s="10"/>
@@ -13576,217 +13581,217 @@
     </row>
     <row r="5" spans="1:53" ht="65">
       <c r="A5" s="10" t="s">
-        <v>1024</v>
+        <v>1025</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>940</v>
+        <v>941</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="6" spans="1:53" ht="91">
       <c r="A6" s="10" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>1178</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="7" spans="1:53">
       <c r="A7" s="10" t="s">
-        <v>1152</v>
+        <v>1153</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>1005</v>
+        <v>1006</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="8" spans="1:53" ht="26">
       <c r="A8" s="10" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B8" s="21" t="s">
-        <v>1153</v>
+        <v>1154</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="9" spans="1:53" ht="65">
       <c r="A9" s="10" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>1269</v>
+        <v>1270</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="10" spans="1:53" ht="39">
       <c r="A10" s="10" t="s">
-        <v>1229</v>
+        <v>1230</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>1110</v>
+        <v>1111</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1093</v>
+        <v>1094</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="11" spans="1:53" ht="39">
       <c r="A11" s="10" t="s">
+        <v>1237</v>
+      </c>
+      <c r="B11" s="10" t="s">
         <v>1236</v>
       </c>
-      <c r="B11" s="10" t="s">
-        <v>1235</v>
-      </c>
       <c r="C11" s="10" t="s">
-        <v>922</v>
+        <v>923</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="12" spans="1:53" ht="91">
       <c r="A12" s="10" t="s">
-        <v>1228</v>
+        <v>1229</v>
       </c>
       <c r="B12" s="10" t="s">
-        <v>1234</v>
+        <v>1235</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>1170</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="13" spans="1:53" ht="26">
       <c r="A13" s="10" t="s">
-        <v>1233</v>
+        <v>1234</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>1230</v>
+        <v>1231</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="14" spans="1:53" ht="52">
       <c r="A14" s="10" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>1163</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="15" spans="1:53" ht="26">
       <c r="A15" s="10" t="s">
-        <v>905</v>
+        <v>906</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>906</v>
+        <v>907</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="16" spans="1:53" ht="52">
       <c r="A16" s="10" t="s">
-        <v>986</v>
+        <v>987</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>821</v>
+        <v>822</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>915</v>
+        <v>916</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="39">
       <c r="A17" s="10" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>978</v>
+        <v>979</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1169</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="26">
       <c r="B18" s="13" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E18" s="13"/>
       <c r="F18" s="30" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="G18" s="13" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="I18" s="39"/>
     </row>
     <row r="19" spans="1:9" ht="26">
       <c r="B19" s="10" t="s">
-        <v>998</v>
+        <v>999</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F19" s="30"/>
       <c r="G19" s="13"/>
@@ -13795,106 +13800,106 @@
     </row>
     <row r="20" spans="1:9" ht="65">
       <c r="B20" s="37" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>1054</v>
+        <v>1055</v>
       </c>
       <c r="H20" s="37" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="52">
       <c r="B21" s="10" t="s">
-        <v>1112</v>
+        <v>1113</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>1295</v>
+        <v>1296</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="65">
       <c r="B22" s="10" t="s">
-        <v>1270</v>
+        <v>1271</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>1111</v>
+        <v>1112</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="91">
       <c r="B23" s="10" t="s">
-        <v>1271</v>
+        <v>1272</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="156">
       <c r="B24" s="10" t="s">
-        <v>1272</v>
+        <v>1273</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>917</v>
+        <v>918</v>
       </c>
       <c r="I24" s="27" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="156">
       <c r="B25" s="10" t="s">
-        <v>1273</v>
+        <v>1274</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="104">
       <c r="B26" s="10" t="s">
-        <v>1241</v>
+        <v>1242</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>926</v>
+        <v>927</v>
       </c>
       <c r="I26" s="27" t="s">
-        <v>1154</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="1" customFormat="1" ht="26">
       <c r="A27" s="13" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E27" s="13"/>
       <c r="F27" s="30" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="G27" s="13"/>
       <c r="H27" s="13"/>
@@ -13902,114 +13907,114 @@
     </row>
     <row r="28" spans="1:9" ht="338">
       <c r="A28" s="10" t="s">
-        <v>817</v>
+        <v>818</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="104">
       <c r="A29" s="37" t="s">
-        <v>1188</v>
+        <v>1189</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>1246</v>
+        <v>1247</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>941</v>
+        <v>942</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="130">
       <c r="A30" s="37" t="s">
+        <v>1173</v>
+      </c>
+      <c r="B30" s="10" t="s">
         <v>1172</v>
       </c>
-      <c r="B30" s="10" t="s">
-        <v>1171</v>
-      </c>
       <c r="C30" s="10" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="130">
       <c r="A31" s="10" t="s">
-        <v>1299</v>
+        <v>1300</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>1171</v>
+        <v>1172</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>966</v>
+        <v>967</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>1187</v>
+        <v>1188</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="234">
       <c r="A32" s="10" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B32" s="10" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="78">
       <c r="A33" s="10" t="s">
-        <v>965</v>
+        <v>966</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="169">
       <c r="A34" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B34" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D34" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="C34" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="D34" s="10" t="s">
-        <v>272</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="117">
       <c r="A35" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B35" s="10" t="s">
+        <v>274</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>485</v>
+      </c>
+      <c r="D35" s="10" t="s">
         <v>273</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>484</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -14039,102 +14044,102 @@
   <sheetData>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>1049</v>
+        <v>1050</v>
       </c>
       <c r="B2" s="49" t="s">
+        <v>963</v>
+      </c>
+      <c r="C2" t="s">
         <v>962</v>
       </c>
-      <c r="C2" t="s">
-        <v>961</v>
-      </c>
       <c r="D2" t="s">
+        <v>903</v>
+      </c>
+      <c r="E2" t="s">
         <v>902</v>
-      </c>
-      <c r="E2" t="s">
-        <v>901</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="156">
       <c r="A4" s="39" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="B4" s="37" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="C4" s="37" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="E4" s="37" t="s">
-        <v>875</v>
+        <v>876</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="78">
       <c r="B5" s="37" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="52">
       <c r="B6" s="37" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="91">
       <c r="B7" s="37" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="104">
       <c r="B8" s="39" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="65">
       <c r="B9" s="39" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="65">
       <c r="B10" s="39" t="s">
-        <v>810</v>
+        <v>811</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="78">
       <c r="B11" s="39" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="52">
       <c r="B12" s="39" t="s">
-        <v>816</v>
+        <v>817</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="104">
       <c r="B13" s="37" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="104" customHeight="1">
       <c r="B14" s="37" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="104" customHeight="1">
       <c r="B15" s="37" t="s">
-        <v>981</v>
+        <v>982</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="104" customHeight="1"/>
     <row r="17" spans="2:2" ht="130">
       <c r="B17" s="37" t="s">
-        <v>977</v>
+        <v>978</v>
       </c>
     </row>
     <row r="18" spans="2:2" ht="221">
       <c r="B18" s="37" t="s">
-        <v>904</v>
+        <v>905</v>
       </c>
     </row>
   </sheetData>
@@ -14170,24 +14175,24 @@
   <sheetData>
     <row r="1" spans="1:52" s="15" customFormat="1" ht="26">
       <c r="A1" s="13" t="s">
-        <v>791</v>
+        <v>792</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>929</v>
+        <v>930</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>930</v>
+        <v>931</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>803</v>
+        <v>804</v>
       </c>
       <c r="F1" s="13"/>
       <c r="G1" s="52"/>
       <c r="H1" s="32" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="I1" s="46"/>
       <c r="J1" s="18"/>
@@ -14236,10 +14241,10 @@
     </row>
     <row r="2" spans="1:52" ht="26">
       <c r="A2" s="10" t="s">
-        <v>1115</v>
+        <v>1116</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>1165</v>
+        <v>1166</v>
       </c>
       <c r="C2" s="11">
         <v>38695</v>
@@ -14248,19 +14253,19 @@
         <v>38731</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>1166</v>
+        <v>1167</v>
       </c>
       <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:52" s="79" customFormat="1" ht="26">
       <c r="A3" s="74" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="B3" s="74" t="s">
-        <v>1019</v>
+        <v>1020</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>1114</v>
+        <v>1115</v>
       </c>
       <c r="D3" s="74"/>
       <c r="E3" s="74"/>
@@ -14270,19 +14275,19 @@
     </row>
     <row r="4" spans="1:52" s="15" customFormat="1">
       <c r="A4" s="13" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="E4" s="30" t="s">
-        <v>882</v>
+        <v>883</v>
       </c>
       <c r="F4" s="10"/>
       <c r="G4" s="53"/>
@@ -14291,336 +14296,336 @@
     </row>
     <row r="5" spans="1:52">
       <c r="A5" s="10" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>844</v>
+        <v>845</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:52" ht="26">
       <c r="A6" s="10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>836</v>
+        <v>837</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="E6" s="10"/>
       <c r="F6" s="10"/>
     </row>
     <row r="7" spans="1:52" ht="26">
       <c r="A7" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>855</v>
+        <v>856</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E7" s="10"/>
       <c r="F7" s="10"/>
     </row>
     <row r="8" spans="1:52">
       <c r="A8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D8" s="12" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="E8" s="10"/>
       <c r="F8" s="10"/>
     </row>
     <row r="9" spans="1:52">
       <c r="A9" s="10" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>856</v>
+        <v>857</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E9" s="10"/>
       <c r="F9" s="10"/>
     </row>
     <row r="10" spans="1:52" ht="26">
       <c r="A10" s="10" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B10" s="10" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>1262</v>
+        <v>1263</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="E10" s="10"/>
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:52" ht="52">
       <c r="A11" s="10" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B11" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>1263</v>
+      </c>
+      <c r="D11" s="10" t="s">
         <v>209</v>
-      </c>
-      <c r="C11" s="10" t="s">
-        <v>1262</v>
-      </c>
-      <c r="D11" s="10" t="s">
-        <v>208</v>
       </c>
       <c r="E11" s="10"/>
       <c r="F11" s="10"/>
     </row>
     <row r="12" spans="1:52">
       <c r="A12" s="10" t="s">
-        <v>1146</v>
+        <v>1147</v>
       </c>
       <c r="B12" s="10" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="D12" s="10" t="s">
         <v>1148</v>
-      </c>
-      <c r="C12" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>1147</v>
       </c>
       <c r="E12" s="10"/>
       <c r="F12" s="10"/>
     </row>
     <row r="13" spans="1:52" ht="65">
       <c r="A13" s="10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B13" s="10" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C13" s="10" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:52" ht="65">
       <c r="A14" s="10" t="s">
-        <v>967</v>
+        <v>968</v>
       </c>
       <c r="B14" s="10" t="s">
-        <v>988</v>
+        <v>989</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>1139</v>
+        <v>1140</v>
       </c>
       <c r="E14" s="10"/>
       <c r="F14" s="10"/>
     </row>
     <row r="15" spans="1:52">
       <c r="A15" s="10" t="s">
-        <v>968</v>
+        <v>969</v>
       </c>
       <c r="B15" s="10" t="s">
-        <v>1174</v>
+        <v>1175</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>918</v>
+        <v>919</v>
       </c>
       <c r="E15" s="10"/>
       <c r="F15" s="10"/>
     </row>
     <row r="16" spans="1:52" ht="26">
       <c r="A16" s="10" t="s">
-        <v>935</v>
+        <v>936</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>936</v>
+        <v>937</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="E16" s="10"/>
       <c r="F16" s="10"/>
     </row>
     <row r="17" spans="1:9" ht="39">
       <c r="A17" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>1138</v>
+        <v>1139</v>
       </c>
       <c r="E17" s="10"/>
       <c r="F17" s="10"/>
     </row>
     <row r="18" spans="1:9" ht="39">
       <c r="A18" s="10" t="s">
-        <v>1223</v>
+        <v>1224</v>
       </c>
       <c r="B18" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E18" s="10"/>
       <c r="F18" s="10"/>
     </row>
     <row r="19" spans="1:9" ht="26">
       <c r="A19" s="10" t="s">
-        <v>1224</v>
+        <v>1225</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>920</v>
+        <v>921</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>795</v>
+        <v>796</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>1137</v>
+        <v>1138</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
     <row r="20" spans="1:9" ht="52">
       <c r="A20" s="10" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B20" s="10" t="s">
+        <v>628</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>796</v>
+      </c>
+      <c r="D20" s="10" t="s">
         <v>627</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>795</v>
-      </c>
-      <c r="D20" s="10" t="s">
-        <v>626</v>
       </c>
       <c r="E20" s="10"/>
       <c r="F20" s="10"/>
     </row>
     <row r="21" spans="1:9" ht="26">
       <c r="A21" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E21" s="10"/>
       <c r="F21" s="10"/>
     </row>
     <row r="22" spans="1:9" ht="26">
       <c r="A22" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B22" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
     </row>
     <row r="23" spans="1:9" ht="26">
       <c r="A23" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E23" s="10"/>
       <c r="F23" s="10"/>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B24" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E24" s="10"/>
       <c r="F24" s="10"/>
     </row>
     <row r="25" spans="1:9" ht="39">
       <c r="A25" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C25" s="10" t="s">
-        <v>939</v>
+        <v>940</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
@@ -14628,37 +14633,37 @@
     <row r="26" spans="1:9" ht="26">
       <c r="A26" s="10"/>
       <c r="B26" s="13" t="s">
-        <v>898</v>
+        <v>899</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>900</v>
+        <v>901</v>
       </c>
       <c r="E26" s="30" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="F26" s="13" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="G26" s="52" t="s">
-        <v>862</v>
+        <v>863</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:9" ht="39">
       <c r="A27" s="10"/>
       <c r="B27" s="10" t="s">
-        <v>1053</v>
+        <v>1054</v>
       </c>
       <c r="C27" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="D27" s="10" t="s">
         <v>230</v>
-      </c>
-      <c r="D27" s="10" t="s">
-        <v>229</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -14667,57 +14672,57 @@
     <row r="28" spans="1:9" ht="65">
       <c r="A28" s="10"/>
       <c r="B28" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>1159</v>
+        <v>1160</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
       <c r="G28" s="47" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>1213</v>
+        <v>1214</v>
       </c>
       <c r="I28" s="55" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="52">
       <c r="A29" s="10"/>
       <c r="B29" s="10" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C29" s="10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
       <c r="E29" s="10"/>
       <c r="F29" s="10"/>
       <c r="G29" s="47" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H29" s="10"/>
       <c r="I29" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="52">
       <c r="A30" s="10"/>
       <c r="B30" s="10" t="s">
-        <v>1200</v>
+        <v>1201</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -14725,13 +14730,13 @@
     <row r="31" spans="1:9" ht="39">
       <c r="A31" s="10"/>
       <c r="B31" s="10" t="s">
-        <v>1201</v>
+        <v>1202</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>1129</v>
+        <v>1130</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -14739,13 +14744,13 @@
     <row r="32" spans="1:9" ht="39">
       <c r="A32" s="10"/>
       <c r="B32" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C32" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>1268</v>
+        <v>1269</v>
       </c>
       <c r="E32" s="10"/>
       <c r="F32" s="10"/>
@@ -14753,30 +14758,30 @@
     <row r="33" spans="1:7" ht="65">
       <c r="A33" s="10"/>
       <c r="B33" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C33" s="10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D33" s="10" t="s">
-        <v>1255</v>
+        <v>1256</v>
       </c>
       <c r="E33" s="10"/>
       <c r="F33" s="10"/>
       <c r="G33" s="54" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:7" ht="26">
       <c r="A34" s="10"/>
       <c r="B34" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C34" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D34" s="10" t="s">
-        <v>1016</v>
+        <v>1017</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -14784,89 +14789,89 @@
     <row r="35" spans="1:7" ht="26">
       <c r="A35" s="10"/>
       <c r="B35" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C35" s="10" t="s">
-        <v>1160</v>
+        <v>1161</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>1128</v>
+        <v>1129</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
     </row>
     <row r="36" spans="1:7" ht="26">
       <c r="A36" s="13" t="s">
-        <v>877</v>
+        <v>878</v>
       </c>
       <c r="B36" s="13" t="s">
-        <v>878</v>
+        <v>879</v>
       </c>
       <c r="C36" s="13" t="s">
-        <v>959</v>
+        <v>960</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>960</v>
+        <v>961</v>
       </c>
       <c r="E36" s="30" t="s">
-        <v>886</v>
+        <v>887</v>
       </c>
       <c r="F36" s="10"/>
     </row>
     <row r="37" spans="1:7" ht="156">
       <c r="A37" s="10" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B37" s="10" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C37" s="10" t="s">
         <v>1082</v>
       </c>
-      <c r="B37" s="10" t="s">
-        <v>1125</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>1081</v>
-      </c>
       <c r="D37" s="10" t="s">
-        <v>1094</v>
+        <v>1095</v>
       </c>
       <c r="E37" s="10"/>
       <c r="F37" s="10"/>
     </row>
     <row r="38" spans="1:7" ht="117">
       <c r="A38" s="10" t="s">
-        <v>818</v>
+        <v>819</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C38" s="10"/>
       <c r="D38" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
     </row>
     <row r="39" spans="1:7" ht="117">
       <c r="A39" s="10" t="s">
-        <v>1083</v>
+        <v>1084</v>
       </c>
       <c r="B39" s="10" t="s">
-        <v>1028</v>
+        <v>1029</v>
       </c>
       <c r="C39" s="10"/>
       <c r="D39" s="10" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
     </row>
     <row r="40" spans="1:7" ht="156">
       <c r="A40" s="10" t="s">
-        <v>1082</v>
+        <v>1083</v>
       </c>
       <c r="B40" s="10" t="s">
-        <v>1125</v>
+        <v>1126</v>
       </c>
       <c r="C40" s="10"/>
       <c r="D40" s="10" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="E40" s="10"/>
       <c r="F40" s="10"/>

--- a/src/ontology/immunology/ido-s4lps-tlr4.xlsx
+++ b/src/ontology/immunology/ido-s4lps-tlr4.xlsx
@@ -10027,7 +10027,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="0" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -10071,7 +10070,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -10707,7 +10705,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -12190,7 +12187,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -12207,8 +12203,8 @@
   <sheetPr published="0" enableFormatConditionsCalculation="0"/>
   <dimension ref="A1:J72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A39" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
@@ -13655,7 +13651,6 @@
       <c r="J72" s="11"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -14849,7 +14844,6 @@
       <c r="B127" s="60"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -15055,7 +15049,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -15793,7 +15786,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -15920,7 +15912,6 @@
       </c>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -16764,7 +16755,6 @@
       <c r="F45" s="9"/>
     </row>
   </sheetData>
-  <sheetCalcPr fullCalcOnLoad="1"/>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
